--- a/generated_files/Carbon footprint - test cases.xlsx
+++ b/generated_files/Carbon footprint - test cases.xlsx
@@ -465,28 +465,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>411.9251960164129</v>
+        <v>400.3150059318281</v>
       </c>
       <c r="C2">
-        <v>478.863205850964</v>
+        <v>473.1273464058083</v>
       </c>
       <c r="D2">
-        <v>532.2829409665404</v>
+        <v>535.0799492403846</v>
       </c>
       <c r="E2">
-        <v>683.7705251577826</v>
+        <v>683.4134102000729</v>
       </c>
       <c r="F2">
-        <v>54.84582332349556</v>
+        <v>44.41331327691881</v>
       </c>
       <c r="G2">
-        <v>105.3902945090889</v>
+        <v>102.5992961861691</v>
       </c>
       <c r="H2">
-        <v>39.28391250804277</v>
+        <v>28.86117500714788</v>
       </c>
       <c r="I2">
-        <v>23.12066343061752</v>
+        <v>26.59759365900169</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -494,28 +494,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>408.7943058695606</v>
+        <v>403.976825585303</v>
       </c>
       <c r="C3">
-        <v>468.2184633755199</v>
+        <v>469.144147685381</v>
       </c>
       <c r="D3">
-        <v>532.2611383058776</v>
+        <v>531.1787762969838</v>
       </c>
       <c r="E3">
-        <v>680.2164606247738</v>
+        <v>682.5798021932807</v>
       </c>
       <c r="F3">
-        <v>47.03822698365852</v>
+        <v>45.52741484620219</v>
       </c>
       <c r="G3">
-        <v>101.2905338206008</v>
+        <v>115.0213643707625</v>
       </c>
       <c r="H3">
-        <v>28.57726066751945</v>
+        <v>26.30133041835392</v>
       </c>
       <c r="I3">
-        <v>27.48755131610992</v>
+        <v>29.22017801014666</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -523,28 +523,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>404.0191048784895</v>
+        <v>399.9952955887742</v>
       </c>
       <c r="C4">
-        <v>468.0550225371953</v>
+        <v>469.6411184227218</v>
       </c>
       <c r="D4">
-        <v>532.6955928730288</v>
+        <v>540.0970981482363</v>
       </c>
       <c r="E4">
-        <v>682.871815440008</v>
+        <v>681.377260974196</v>
       </c>
       <c r="F4">
-        <v>48.55911645734261</v>
+        <v>45.43248707439689</v>
       </c>
       <c r="G4">
-        <v>105.5236542752912</v>
+        <v>104.3915983395236</v>
       </c>
       <c r="H4">
-        <v>26.76229123884488</v>
+        <v>31.60667625046944</v>
       </c>
       <c r="I4">
-        <v>25.27981987696917</v>
+        <v>39.01953087930625</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -552,28 +552,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>404.8620026567926</v>
+        <v>400.7689969354049</v>
       </c>
       <c r="C5">
-        <v>475.3424153980874</v>
+        <v>471.5408250614192</v>
       </c>
       <c r="D5">
-        <v>535.7897103278397</v>
+        <v>535.7397816503325</v>
       </c>
       <c r="E5">
-        <v>683.0543379469211</v>
+        <v>688.0618063685986</v>
       </c>
       <c r="F5">
-        <v>47.34451013964821</v>
+        <v>46.00069185591061</v>
       </c>
       <c r="G5">
-        <v>102.1529734475599</v>
+        <v>106.6811923850019</v>
       </c>
       <c r="H5">
-        <v>27.3774405315351</v>
+        <v>25.05592753357563</v>
       </c>
       <c r="I5">
-        <v>22.6428436053205</v>
+        <v>25.38583586470044</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -581,28 +581,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>400.9551456656056</v>
+        <v>403.4099908488183</v>
       </c>
       <c r="C6">
-        <v>469.6723024149463</v>
+        <v>467.8735321004189</v>
       </c>
       <c r="D6">
-        <v>531.840099432551</v>
+        <v>540.0691226652796</v>
       </c>
       <c r="E6">
-        <v>679.2670040589954</v>
+        <v>679.4264646268865</v>
       </c>
       <c r="F6">
-        <v>43.10925514859588</v>
+        <v>44.1467762110208</v>
       </c>
       <c r="G6">
-        <v>101.0185486916727</v>
+        <v>107.2511785542984</v>
       </c>
       <c r="H6">
-        <v>39.23089983415641</v>
+        <v>25.99660500399415</v>
       </c>
       <c r="I6">
-        <v>30.01364193592076</v>
+        <v>26.52454756334549</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -610,28 +610,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>402.216539154856</v>
+        <v>407.860124997249</v>
       </c>
       <c r="C7">
-        <v>469.6101576067371</v>
+        <v>469.4710071851759</v>
       </c>
       <c r="D7">
-        <v>536.6556388474388</v>
+        <v>531.6198854773902</v>
       </c>
       <c r="E7">
-        <v>688.7746792577086</v>
+        <v>711.2403132434326</v>
       </c>
       <c r="F7">
-        <v>52.12588960927764</v>
+        <v>48.88587733559039</v>
       </c>
       <c r="G7">
-        <v>102.2755786651465</v>
+        <v>108.0301827693237</v>
       </c>
       <c r="H7">
-        <v>37.36123238943551</v>
+        <v>29.77235769097004</v>
       </c>
       <c r="I7">
-        <v>24.3824887769181</v>
+        <v>33.93341613793179</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -639,28 +639,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>400.3422830002893</v>
+        <v>424.0464317706883</v>
       </c>
       <c r="C8">
-        <v>470.2685003071742</v>
+        <v>471.8525464489937</v>
       </c>
       <c r="D8">
-        <v>531.8873186074705</v>
+        <v>542.7883676929157</v>
       </c>
       <c r="E8">
-        <v>689.1953787050209</v>
+        <v>682.0685725507403</v>
       </c>
       <c r="F8">
-        <v>46.20352658219948</v>
+        <v>44.54971214622513</v>
       </c>
       <c r="G8">
-        <v>100.8446589006398</v>
+        <v>103.5142362601742</v>
       </c>
       <c r="H8">
-        <v>28.94569447379936</v>
+        <v>30.60994096840498</v>
       </c>
       <c r="I8">
-        <v>46.4188476122226</v>
+        <v>28.35169937838919</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -668,28 +668,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>404.6230921486208</v>
+        <v>399.4954525185065</v>
       </c>
       <c r="C9">
-        <v>478.3556158563729</v>
+        <v>467.5356406409704</v>
       </c>
       <c r="D9">
-        <v>531.3087448944127</v>
+        <v>533.2595463267766</v>
       </c>
       <c r="E9">
-        <v>689.176298301316</v>
+        <v>689.6264361376461</v>
       </c>
       <c r="F9">
-        <v>45.41230900849065</v>
+        <v>43.71214426199219</v>
       </c>
       <c r="G9">
-        <v>100.242650893189</v>
+        <v>100.8951448041185</v>
       </c>
       <c r="H9">
-        <v>25.36440487999112</v>
+        <v>30.06272741214319</v>
       </c>
       <c r="I9">
-        <v>27.23954753096125</v>
+        <v>25.55369908637895</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -697,28 +697,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>406.2630361200756</v>
+        <v>404.255168586836</v>
       </c>
       <c r="C10">
-        <v>474.2507347497009</v>
+        <v>471.2881777161982</v>
       </c>
       <c r="D10">
-        <v>534.5990396064316</v>
+        <v>543.164807899316</v>
       </c>
       <c r="E10">
-        <v>694.9419054659411</v>
+        <v>680.2039674386717</v>
       </c>
       <c r="F10">
-        <v>53.25999815880753</v>
+        <v>43.0887587775843</v>
       </c>
       <c r="G10">
-        <v>109.5108716572272</v>
+        <v>108.4319448206067</v>
       </c>
       <c r="H10">
-        <v>26.60314690273858</v>
+        <v>29.42778796558702</v>
       </c>
       <c r="I10">
-        <v>26.80906718360616</v>
+        <v>27.23030668731989</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -726,28 +726,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>401.3533998556784</v>
+        <v>401.1613560820938</v>
       </c>
       <c r="C11">
-        <v>478.9600836468692</v>
+        <v>466.9958195603197</v>
       </c>
       <c r="D11">
-        <v>534.3522831457798</v>
+        <v>540.1044384855579</v>
       </c>
       <c r="E11">
-        <v>681.3335691476716</v>
+        <v>682.3376391600765</v>
       </c>
       <c r="F11">
-        <v>50.35489731613578</v>
+        <v>53.7690810014177</v>
       </c>
       <c r="G11">
-        <v>119.3636563527493</v>
+        <v>102.9824939069836</v>
       </c>
       <c r="H11">
-        <v>27.18249603357601</v>
+        <v>31.21732984605478</v>
       </c>
       <c r="I11">
-        <v>26.80715132740618</v>
+        <v>25.62320997901777</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -755,28 +755,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>408.6083046465604</v>
+        <v>401.6902759834418</v>
       </c>
       <c r="C12">
-        <v>480.4885501966349</v>
+        <v>469.3693865835888</v>
       </c>
       <c r="D12">
-        <v>530.0566807244159</v>
+        <v>539.5897603332777</v>
       </c>
       <c r="E12">
-        <v>701.318871495415</v>
+        <v>688.007872650084</v>
       </c>
       <c r="F12">
-        <v>44.96695634296311</v>
+        <v>43.18864929081748</v>
       </c>
       <c r="G12">
-        <v>106.1756858263194</v>
+        <v>105.4122538725891</v>
       </c>
       <c r="H12">
-        <v>29.47658397701825</v>
+        <v>31.06508229763821</v>
       </c>
       <c r="I12">
-        <v>31.65065246085956</v>
+        <v>27.70441998318547</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -784,28 +784,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>402.2969314843666</v>
+        <v>408.7523537353826</v>
       </c>
       <c r="C13">
-        <v>467.3365845383497</v>
+        <v>472.2594008854987</v>
       </c>
       <c r="D13">
-        <v>530.6616837709353</v>
+        <v>543.3570422082609</v>
       </c>
       <c r="E13">
-        <v>678.6978392659769</v>
+        <v>687.4322304054813</v>
       </c>
       <c r="F13">
-        <v>45.30762791762296</v>
+        <v>49.99172737972014</v>
       </c>
       <c r="G13">
-        <v>101.0167902079753</v>
+        <v>103.4785347748765</v>
       </c>
       <c r="H13">
-        <v>25.94432573721579</v>
+        <v>25.89971399992543</v>
       </c>
       <c r="I13">
-        <v>24.41594152580659</v>
+        <v>30.90315009400939</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -813,28 +813,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>407.3504923917421</v>
+        <v>403.4695739995141</v>
       </c>
       <c r="C14">
-        <v>467.5918599725953</v>
+        <v>467.4174595710081</v>
       </c>
       <c r="D14">
-        <v>534.5037019629524</v>
+        <v>534.4909091930549</v>
       </c>
       <c r="E14">
-        <v>683.1637234714279</v>
+        <v>679.0840387505004</v>
       </c>
       <c r="F14">
-        <v>43.47217809106717</v>
+        <v>44.57002752702574</v>
       </c>
       <c r="G14">
-        <v>107.6478632000333</v>
+        <v>104.4329847799171</v>
       </c>
       <c r="H14">
-        <v>26.10200708262279</v>
+        <v>25.5846601072829</v>
       </c>
       <c r="I14">
-        <v>27.67805698706287</v>
+        <v>24.80916355335909</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -842,28 +842,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>401.787846605909</v>
+        <v>404.8761369087884</v>
       </c>
       <c r="C15">
-        <v>467.042970605453</v>
+        <v>475.3897869614498</v>
       </c>
       <c r="D15">
-        <v>531.0197869305154</v>
+        <v>536.0303239777436</v>
       </c>
       <c r="E15">
-        <v>684.2388328954797</v>
+        <v>679.4274766471428</v>
       </c>
       <c r="F15">
-        <v>48.83538003087276</v>
+        <v>46.56279389146974</v>
       </c>
       <c r="G15">
-        <v>102.2097119889742</v>
+        <v>109.3364042104786</v>
       </c>
       <c r="H15">
-        <v>41.75576627231776</v>
+        <v>28.24619618812017</v>
       </c>
       <c r="I15">
-        <v>27.44848118582255</v>
+        <v>23.04006091533612</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -871,28 +871,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>402.5062572182918</v>
+        <v>399.332651589585</v>
       </c>
       <c r="C16">
-        <v>472.8845693606264</v>
+        <v>472.0409858945323</v>
       </c>
       <c r="D16">
-        <v>536.5872861870428</v>
+        <v>538.7355386828498</v>
       </c>
       <c r="E16">
-        <v>678.6169125324647</v>
+        <v>680.5713837284636</v>
       </c>
       <c r="F16">
-        <v>62.90558287913588</v>
+        <v>48.79950620870695</v>
       </c>
       <c r="G16">
-        <v>111.7464376911394</v>
+        <v>103.0471901825278</v>
       </c>
       <c r="H16">
-        <v>24.75518223642805</v>
+        <v>25.87420897149042</v>
       </c>
       <c r="I16">
-        <v>25.20703509526663</v>
+        <v>28.98150349394497</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -900,28 +900,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>405.5942398222863</v>
+        <v>399.6959419832684</v>
       </c>
       <c r="C17">
-        <v>466.8653269268769</v>
+        <v>472.3338435313134</v>
       </c>
       <c r="D17">
-        <v>537.9810732546621</v>
+        <v>535.6500334339755</v>
       </c>
       <c r="E17">
-        <v>681.097848860869</v>
+        <v>686.7913355270671</v>
       </c>
       <c r="F17">
-        <v>49.21128680732077</v>
+        <v>48.63652434044909</v>
       </c>
       <c r="G17">
-        <v>102.2286187453256</v>
+        <v>107.9439491994542</v>
       </c>
       <c r="H17">
-        <v>40.78795994414992</v>
+        <v>34.00275667417336</v>
       </c>
       <c r="I17">
-        <v>29.12919456195273</v>
+        <v>25.4005746070493</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -929,28 +929,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>402.6958770144966</v>
+        <v>401.1726548177225</v>
       </c>
       <c r="C18">
-        <v>470.0228775681755</v>
+        <v>466.8002394520473</v>
       </c>
       <c r="D18">
-        <v>531.9974359589082</v>
+        <v>535.6313863202923</v>
       </c>
       <c r="E18">
-        <v>705.5436781962728</v>
+        <v>683.2837658586154</v>
       </c>
       <c r="F18">
-        <v>47.94508315605347</v>
+        <v>47.57260454601823</v>
       </c>
       <c r="G18">
-        <v>101.5823823078866</v>
+        <v>101.2943067545647</v>
       </c>
       <c r="H18">
-        <v>39.15221096018119</v>
+        <v>31.90203363401134</v>
       </c>
       <c r="I18">
-        <v>24.50146350792325</v>
+        <v>28.7150997015715</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -958,28 +958,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>400.0600983850356</v>
+        <v>418.1719676129545</v>
       </c>
       <c r="C19">
-        <v>468.248413932035</v>
+        <v>471.4717536403876</v>
       </c>
       <c r="D19">
-        <v>550.9963645336881</v>
+        <v>532.3749316117186</v>
       </c>
       <c r="E19">
-        <v>683.0353376696604</v>
+        <v>679.384103619284</v>
       </c>
       <c r="F19">
-        <v>46.91822521262178</v>
+        <v>44.4472775246435</v>
       </c>
       <c r="G19">
-        <v>103.1810269014266</v>
+        <v>100.4547496871334</v>
       </c>
       <c r="H19">
-        <v>36.51070977230874</v>
+        <v>26.44353561204883</v>
       </c>
       <c r="I19">
-        <v>24.35890010906964</v>
+        <v>37.40817986375649</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -987,28 +987,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>401.8038677261812</v>
+        <v>400.8672901744742</v>
       </c>
       <c r="C20">
-        <v>466.8362252663711</v>
+        <v>472.4337806670629</v>
       </c>
       <c r="D20">
-        <v>540.5036625000151</v>
+        <v>537.7854300236196</v>
       </c>
       <c r="E20">
-        <v>683.7819822867166</v>
+        <v>683.8597537018971</v>
       </c>
       <c r="F20">
-        <v>52.00749381777184</v>
+        <v>43.17964754447508</v>
       </c>
       <c r="G20">
-        <v>105.6711738426398</v>
+        <v>104.3194581171242</v>
       </c>
       <c r="H20">
-        <v>26.94611596321619</v>
+        <v>26.35906399789513</v>
       </c>
       <c r="I20">
-        <v>45.93805392107227</v>
+        <v>31.18305659640489</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1016,28 +1016,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>400.8948763945561</v>
+        <v>399.8042029054773</v>
       </c>
       <c r="C21">
-        <v>475.4805000748074</v>
+        <v>468.7448348830462</v>
       </c>
       <c r="D21">
-        <v>535.1633075051323</v>
+        <v>531.9698598120981</v>
       </c>
       <c r="E21">
-        <v>681.7317683404835</v>
+        <v>680.1539556019757</v>
       </c>
       <c r="F21">
-        <v>45.77043482044108</v>
+        <v>44.53089569455023</v>
       </c>
       <c r="G21">
-        <v>100.2699244148525</v>
+        <v>111.5817390522815</v>
       </c>
       <c r="H21">
-        <v>26.18932935867507</v>
+        <v>26.53202236812036</v>
       </c>
       <c r="I21">
-        <v>23.50075972069838</v>
+        <v>28.42980505058655</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1045,28 +1045,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>401.341720870239</v>
+        <v>400.160908430072</v>
       </c>
       <c r="C22">
-        <v>482.7568474551652</v>
+        <v>473.1582683318321</v>
       </c>
       <c r="D22">
-        <v>534.5205792056919</v>
+        <v>531.6210310808875</v>
       </c>
       <c r="E22">
-        <v>682.6521604571549</v>
+        <v>679.4003341091531</v>
       </c>
       <c r="F22">
-        <v>46.68298204897869</v>
+        <v>46.67357443438637</v>
       </c>
       <c r="G22">
-        <v>104.2259781168109</v>
+        <v>100.704538674883</v>
       </c>
       <c r="H22">
-        <v>34.84351433965546</v>
+        <v>49.64760742552215</v>
       </c>
       <c r="I22">
-        <v>27.29280261909781</v>
+        <v>25.1396134887775</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1074,28 +1074,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>404.9827217755065</v>
+        <v>400.3189571972705</v>
       </c>
       <c r="C23">
-        <v>467.2215321552924</v>
+        <v>468.7275558612543</v>
       </c>
       <c r="D23">
-        <v>531.0998644281614</v>
+        <v>538.6515554100531</v>
       </c>
       <c r="E23">
-        <v>680.5039446600071</v>
+        <v>681.6687514281119</v>
       </c>
       <c r="F23">
-        <v>49.25301665901794</v>
+        <v>43.50648222640688</v>
       </c>
       <c r="G23">
-        <v>101.217937372363</v>
+        <v>101.8397206551579</v>
       </c>
       <c r="H23">
-        <v>34.02606366939278</v>
+        <v>24.83847349126761</v>
       </c>
       <c r="I23">
-        <v>36.07922514961903</v>
+        <v>24.31954285928769</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1103,28 +1103,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>402.6503827868708</v>
+        <v>403.1037461795658</v>
       </c>
       <c r="C24">
-        <v>469.5766610131162</v>
+        <v>466.6283794633401</v>
       </c>
       <c r="D24">
-        <v>535.8549675931883</v>
+        <v>534.5664929586692</v>
       </c>
       <c r="E24">
-        <v>679.236884253164</v>
+        <v>682.7714868208486</v>
       </c>
       <c r="F24">
-        <v>44.06183703550577</v>
+        <v>52.81695243833121</v>
       </c>
       <c r="G24">
-        <v>104.3933820736085</v>
+        <v>106.7366717452857</v>
       </c>
       <c r="H24">
-        <v>29.19698687936981</v>
+        <v>26.42376952855476</v>
       </c>
       <c r="I24">
-        <v>25.88514416655688</v>
+        <v>24.03035879550119</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1132,28 +1132,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>401.4035418240337</v>
+        <v>399.9019731054801</v>
       </c>
       <c r="C25">
-        <v>479.0152568832099</v>
+        <v>471.230423915864</v>
       </c>
       <c r="D25">
-        <v>540.1402474652333</v>
+        <v>531.5267124100955</v>
       </c>
       <c r="E25">
-        <v>681.1171921253707</v>
+        <v>679.1292132522461</v>
       </c>
       <c r="F25">
-        <v>55.5516447596515</v>
+        <v>44.68753533052936</v>
       </c>
       <c r="G25">
-        <v>103.2572291372817</v>
+        <v>103.6925539321897</v>
       </c>
       <c r="H25">
-        <v>28.24070976780385</v>
+        <v>25.31872196185806</v>
       </c>
       <c r="I25">
-        <v>24.36734213332115</v>
+        <v>31.64753716877156</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1161,28 +1161,28 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>400.9394274929441</v>
+        <v>399.9055125266892</v>
       </c>
       <c r="C26">
-        <v>466.7777433673334</v>
+        <v>467.7193754287063</v>
       </c>
       <c r="D26">
-        <v>539.0685552174048</v>
+        <v>535.3999395875589</v>
       </c>
       <c r="E26">
-        <v>680.8819729621731</v>
+        <v>681.7522061032032</v>
       </c>
       <c r="F26">
-        <v>45.56456776711877</v>
+        <v>61.92306838760667</v>
       </c>
       <c r="G26">
-        <v>101.5331351333997</v>
+        <v>102.3469283022663</v>
       </c>
       <c r="H26">
-        <v>31.85863964897794</v>
+        <v>25.84807519045808</v>
       </c>
       <c r="I26">
-        <v>33.00405568209186</v>
+        <v>26.38530564714746</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1190,28 +1190,28 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>406.1797612865197</v>
+        <v>406.4339780382372</v>
       </c>
       <c r="C27">
-        <v>468.1360202084318</v>
+        <v>478.9491049905881</v>
       </c>
       <c r="D27">
-        <v>543.5245195819614</v>
+        <v>531.2289765790415</v>
       </c>
       <c r="E27">
-        <v>680.4953527308505</v>
+        <v>679.891025413655</v>
       </c>
       <c r="F27">
-        <v>52.23168638734069</v>
+        <v>47.23896260575029</v>
       </c>
       <c r="G27">
-        <v>104.1883676688915</v>
+        <v>117.3256964425607</v>
       </c>
       <c r="H27">
-        <v>33.01504924030357</v>
+        <v>28.75187401936967</v>
       </c>
       <c r="I27">
-        <v>22.29411018630404</v>
+        <v>25.13162474689384</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1219,28 +1219,28 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>401.6877233314627</v>
+        <v>401.4309430631458</v>
       </c>
       <c r="C28">
-        <v>470.7893839518644</v>
+        <v>466.9697950697745</v>
       </c>
       <c r="D28">
-        <v>547.0034699292878</v>
+        <v>536.3198444457406</v>
       </c>
       <c r="E28">
-        <v>682.5969161457469</v>
+        <v>682.3347048062983</v>
       </c>
       <c r="F28">
-        <v>46.44896383568472</v>
+        <v>46.25422635962296</v>
       </c>
       <c r="G28">
-        <v>108.3511576155127</v>
+        <v>105.3040035053756</v>
       </c>
       <c r="H28">
-        <v>25.79640131079329</v>
+        <v>26.27452766592042</v>
       </c>
       <c r="I28">
-        <v>29.49686596156062</v>
+        <v>25.01406271401358</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1248,28 +1248,28 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>402.0568412475567</v>
+        <v>405.2850261488376</v>
       </c>
       <c r="C29">
-        <v>470.1885970072468</v>
+        <v>467.3089264407149</v>
       </c>
       <c r="D29">
-        <v>531.8109939571671</v>
+        <v>532.9952819259717</v>
       </c>
       <c r="E29">
-        <v>691.3035839598715</v>
+        <v>681.0450339133599</v>
       </c>
       <c r="F29">
-        <v>45.91886142297857</v>
+        <v>48.85930703410703</v>
       </c>
       <c r="G29">
-        <v>101.4436685912091</v>
+        <v>112.5364644538387</v>
       </c>
       <c r="H29">
-        <v>37.94503183876918</v>
+        <v>29.83847565752155</v>
       </c>
       <c r="I29">
-        <v>24.99352290101914</v>
+        <v>25.62726377017217</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1277,28 +1277,28 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>401.2424433429393</v>
+        <v>428.1366456491136</v>
       </c>
       <c r="C30">
-        <v>471.5264354440865</v>
+        <v>469.2682806132457</v>
       </c>
       <c r="D30">
-        <v>532.0473985697183</v>
+        <v>532.0051978264875</v>
       </c>
       <c r="E30">
-        <v>678.0847830388948</v>
+        <v>681.2837932014183</v>
       </c>
       <c r="F30">
-        <v>51.69795222578752</v>
+        <v>47.19363654240294</v>
       </c>
       <c r="G30">
-        <v>124.2891209459111</v>
+        <v>103.7281876319347</v>
       </c>
       <c r="H30">
-        <v>28.6978618460391</v>
+        <v>31.68237568122911</v>
       </c>
       <c r="I30">
-        <v>31.84725497480537</v>
+        <v>24.96832202461015</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1306,28 +1306,28 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>399.8018284115525</v>
+        <v>406.326461554485</v>
       </c>
       <c r="C31">
-        <v>471.1179274975756</v>
+        <v>470.2621686370862</v>
       </c>
       <c r="D31">
-        <v>574.3967090458615</v>
+        <v>535.4219288366222</v>
       </c>
       <c r="E31">
-        <v>680.2012680705695</v>
+        <v>681.8327257279807</v>
       </c>
       <c r="F31">
-        <v>47.61770443894017</v>
+        <v>44.18981997084133</v>
       </c>
       <c r="G31">
-        <v>112.7958896943516</v>
+        <v>104.3192606668219</v>
       </c>
       <c r="H31">
-        <v>31.18564037014925</v>
+        <v>27.58014254917184</v>
       </c>
       <c r="I31">
-        <v>23.65957033739418</v>
+        <v>23.25082093266754</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1335,28 +1335,28 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>407.0307892847009</v>
+        <v>400.813725324929</v>
       </c>
       <c r="C32">
-        <v>467.589038898473</v>
+        <v>468.6161143200055</v>
       </c>
       <c r="D32">
-        <v>530.6677598613227</v>
+        <v>538.0044895695362</v>
       </c>
       <c r="E32">
-        <v>686.1008212954454</v>
+        <v>685.5696992830239</v>
       </c>
       <c r="F32">
-        <v>49.16472900630096</v>
+        <v>43.2915823759525</v>
       </c>
       <c r="G32">
-        <v>105.6667275102125</v>
+        <v>101.9479041416933</v>
       </c>
       <c r="H32">
-        <v>26.39078505326944</v>
+        <v>28.97975472242898</v>
       </c>
       <c r="I32">
-        <v>23.01838046048519</v>
+        <v>25.90134479507079</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1364,28 +1364,28 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>448.7142638799425</v>
+        <v>400.7811432831133</v>
       </c>
       <c r="C33">
-        <v>485.4843177524122</v>
+        <v>474.136811770719</v>
       </c>
       <c r="D33">
-        <v>534.3131084350855</v>
+        <v>531.057207596271</v>
       </c>
       <c r="E33">
-        <v>687.837307446342</v>
+        <v>683.6833344896377</v>
       </c>
       <c r="F33">
-        <v>48.43304096816991</v>
+        <v>50.19079527730309</v>
       </c>
       <c r="G33">
-        <v>102.2065048344807</v>
+        <v>100.5991835893025</v>
       </c>
       <c r="H33">
-        <v>31.09892810445816</v>
+        <v>32.0553846320135</v>
       </c>
       <c r="I33">
-        <v>33.48221894311182</v>
+        <v>29.20600820678156</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1393,28 +1393,28 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>407.1813630159499</v>
+        <v>402.24229260159</v>
       </c>
       <c r="C34">
-        <v>467.4336176869361</v>
+        <v>470.5421981615341</v>
       </c>
       <c r="D34">
-        <v>530.8855397431987</v>
+        <v>531.1919197703655</v>
       </c>
       <c r="E34">
-        <v>680.1341272790576</v>
+        <v>695.9279477876112</v>
       </c>
       <c r="F34">
-        <v>44.44023037376131</v>
+        <v>43.71945028232513</v>
       </c>
       <c r="G34">
-        <v>102.385469101724</v>
+        <v>100.3101239874941</v>
       </c>
       <c r="H34">
-        <v>26.98190396835979</v>
+        <v>41.03007802180387</v>
       </c>
       <c r="I34">
-        <v>28.23582537615853</v>
+        <v>25.69604802369476</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1422,28 +1422,28 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>401.995872970068</v>
+        <v>400.7906289092641</v>
       </c>
       <c r="C35">
-        <v>480.9421864054124</v>
+        <v>468.8350975047808</v>
       </c>
       <c r="D35">
-        <v>552.8543067742944</v>
+        <v>537.3973000703324</v>
       </c>
       <c r="E35">
-        <v>687.6801879501384</v>
+        <v>682.2082164953381</v>
       </c>
       <c r="F35">
-        <v>46.56689130253996</v>
+        <v>43.64723274419973</v>
       </c>
       <c r="G35">
-        <v>100.5457698610825</v>
+        <v>102.5638965826274</v>
       </c>
       <c r="H35">
-        <v>26.20940138877097</v>
+        <v>29.05855130555573</v>
       </c>
       <c r="I35">
-        <v>31.06184486298699</v>
+        <v>27.35290603576774</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1451,28 +1451,28 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>401.1225747616841</v>
+        <v>403.9319699113714</v>
       </c>
       <c r="C36">
-        <v>468.3934725908349</v>
+        <v>466.723902949849</v>
       </c>
       <c r="D36">
-        <v>537.2073982489225</v>
+        <v>539.860397479639</v>
       </c>
       <c r="E36">
-        <v>681.0061484959948</v>
+        <v>679.6980916659976</v>
       </c>
       <c r="F36">
-        <v>50.02077868474075</v>
+        <v>47.55957556157347</v>
       </c>
       <c r="G36">
-        <v>106.5733948148957</v>
+        <v>105.1054734534711</v>
       </c>
       <c r="H36">
-        <v>27.44306454117247</v>
+        <v>25.70097593232787</v>
       </c>
       <c r="I36">
-        <v>23.96913913960494</v>
+        <v>26.92131496044425</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1480,28 +1480,28 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>399.8075264412578</v>
+        <v>399.5126460890418</v>
       </c>
       <c r="C37">
-        <v>473.4508200894657</v>
+        <v>470.3447004270855</v>
       </c>
       <c r="D37">
-        <v>532.5011503786261</v>
+        <v>546.1896546930869</v>
       </c>
       <c r="E37">
-        <v>680.5389154951954</v>
+        <v>686.3136185389986</v>
       </c>
       <c r="F37">
-        <v>48.69284930293892</v>
+        <v>50.5837610571353</v>
       </c>
       <c r="G37">
-        <v>108.2657413217402</v>
+        <v>105.2932821815173</v>
       </c>
       <c r="H37">
-        <v>26.77401596265017</v>
+        <v>42.01802989398696</v>
       </c>
       <c r="I37">
-        <v>27.10767107321744</v>
+        <v>45.82645293640448</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1509,28 +1509,28 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>401.2035090473667</v>
+        <v>401.6197903373945</v>
       </c>
       <c r="C38">
-        <v>466.7888346559821</v>
+        <v>473.9732117763632</v>
       </c>
       <c r="D38">
-        <v>540.6523851922968</v>
+        <v>533.0442631331986</v>
       </c>
       <c r="E38">
-        <v>679.1166437526113</v>
+        <v>679.9508832017589</v>
       </c>
       <c r="F38">
-        <v>45.78302025878997</v>
+        <v>49.11903263182684</v>
       </c>
       <c r="G38">
-        <v>101.6290246524489</v>
+        <v>107.3977792942719</v>
       </c>
       <c r="H38">
-        <v>29.84341773879002</v>
+        <v>25.99365509137129</v>
       </c>
       <c r="I38">
-        <v>26.14159787499652</v>
+        <v>24.86046385169968</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1538,28 +1538,28 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>411.9131611697933</v>
+        <v>401.3299597984682</v>
       </c>
       <c r="C39">
-        <v>504.8219758390379</v>
+        <v>475.376560377957</v>
       </c>
       <c r="D39">
-        <v>531.4278805289919</v>
+        <v>531.3013686374721</v>
       </c>
       <c r="E39">
-        <v>689.7531075959397</v>
+        <v>683.7931165102093</v>
       </c>
       <c r="F39">
-        <v>48.47368645686235</v>
+        <v>46.27795089059591</v>
       </c>
       <c r="G39">
-        <v>115.5861824909447</v>
+        <v>107.8581376135187</v>
       </c>
       <c r="H39">
-        <v>39.75436582468755</v>
+        <v>28.90586768849369</v>
       </c>
       <c r="I39">
-        <v>22.65824883491954</v>
+        <v>26.18668106709582</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1567,28 +1567,28 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>402.7792442029873</v>
+        <v>414.6939698910636</v>
       </c>
       <c r="C40">
-        <v>468.1188946694545</v>
+        <v>466.4127823228451</v>
       </c>
       <c r="D40">
-        <v>536.4834572580718</v>
+        <v>535.5779625636422</v>
       </c>
       <c r="E40">
-        <v>681.7598024903139</v>
+        <v>681.967590389733</v>
       </c>
       <c r="F40">
-        <v>52.00834836550978</v>
+        <v>49.70366968887893</v>
       </c>
       <c r="G40">
-        <v>103.6559628452981</v>
+        <v>110.6916367079676</v>
       </c>
       <c r="H40">
-        <v>37.03151658537968</v>
+        <v>34.79477555852723</v>
       </c>
       <c r="I40">
-        <v>25.72663859687358</v>
+        <v>39.32978959009404</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1596,28 +1596,28 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>400.6795592967771</v>
+        <v>406.5388707862509</v>
       </c>
       <c r="C41">
-        <v>468.4862295073418</v>
+        <v>471.1390152583814</v>
       </c>
       <c r="D41">
-        <v>539.9150335622704</v>
+        <v>538.273751928108</v>
       </c>
       <c r="E41">
-        <v>682.1220664414628</v>
+        <v>681.9344583154557</v>
       </c>
       <c r="F41">
-        <v>47.17187545803211</v>
+        <v>52.91601154007108</v>
       </c>
       <c r="G41">
-        <v>112.7351924716302</v>
+        <v>102.53995628409</v>
       </c>
       <c r="H41">
-        <v>29.99541208852534</v>
+        <v>25.63415849941155</v>
       </c>
       <c r="I41">
-        <v>22.54403533335984</v>
+        <v>25.03315267820066</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1625,28 +1625,28 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>401.5465169811609</v>
+        <v>401.206475647679</v>
       </c>
       <c r="C42">
-        <v>471.2886329574941</v>
+        <v>467.8379081393858</v>
       </c>
       <c r="D42">
-        <v>532.6031448446649</v>
+        <v>537.315276485257</v>
       </c>
       <c r="E42">
-        <v>680.1195847789337</v>
+        <v>679.2235378223701</v>
       </c>
       <c r="F42">
-        <v>43.9518018123095</v>
+        <v>47.95292779798747</v>
       </c>
       <c r="G42">
-        <v>103.2184096542282</v>
+        <v>109.1285281536723</v>
       </c>
       <c r="H42">
-        <v>29.70368198005263</v>
+        <v>26.39101703488306</v>
       </c>
       <c r="I42">
-        <v>25.54345581183808</v>
+        <v>32.8824127392604</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1654,28 +1654,28 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>402.0086235727692</v>
+        <v>402.4935282858094</v>
       </c>
       <c r="C43">
-        <v>466.5427368709911</v>
+        <v>468.572867327122</v>
       </c>
       <c r="D43">
-        <v>535.7522032735856</v>
+        <v>533.9820850638054</v>
       </c>
       <c r="E43">
-        <v>681.2386567020012</v>
+        <v>678.7429030130764</v>
       </c>
       <c r="F43">
-        <v>44.78027501367537</v>
+        <v>45.4259752362133</v>
       </c>
       <c r="G43">
-        <v>117.3796509323079</v>
+        <v>104.8994671691168</v>
       </c>
       <c r="H43">
-        <v>33.27321959073598</v>
+        <v>27.69346170234223</v>
       </c>
       <c r="I43">
-        <v>24.36930811650696</v>
+        <v>28.59778954480701</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1683,28 +1683,28 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>399.9684676947139</v>
+        <v>405.0727404680643</v>
       </c>
       <c r="C44">
-        <v>468.4730465356065</v>
+        <v>470.3565015477885</v>
       </c>
       <c r="D44">
-        <v>531.4493437406818</v>
+        <v>532.7265398775608</v>
       </c>
       <c r="E44">
-        <v>680.7350399776882</v>
+        <v>679.7215636542184</v>
       </c>
       <c r="F44">
-        <v>43.66276355832119</v>
+        <v>46.12645866809434</v>
       </c>
       <c r="G44">
-        <v>101.2007177619098</v>
+        <v>106.6398854663065</v>
       </c>
       <c r="H44">
-        <v>27.37455082496242</v>
+        <v>26.93050361144849</v>
       </c>
       <c r="I44">
-        <v>34.04879403894988</v>
+        <v>30.6328504707674</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1712,28 +1712,28 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>402.4839480665201</v>
+        <v>403.6004279786251</v>
       </c>
       <c r="C45">
-        <v>467.5983144764566</v>
+        <v>467.4633376318213</v>
       </c>
       <c r="D45">
-        <v>539.3631656602959</v>
+        <v>534.6289079925316</v>
       </c>
       <c r="E45">
-        <v>679.7157766335276</v>
+        <v>680.0124222546432</v>
       </c>
       <c r="F45">
-        <v>44.70630269078336</v>
+        <v>46.19690582799834</v>
       </c>
       <c r="G45">
-        <v>103.2137787822525</v>
+        <v>104.0111957647042</v>
       </c>
       <c r="H45">
-        <v>26.85693741467477</v>
+        <v>31.70968590219512</v>
       </c>
       <c r="I45">
-        <v>27.65342065343245</v>
+        <v>55.5573616223141</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1741,28 +1741,28 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>408.433363942074</v>
+        <v>401.1051075974562</v>
       </c>
       <c r="C46">
-        <v>475.7031278156213</v>
+        <v>470.1065880859295</v>
       </c>
       <c r="D46">
-        <v>536.4133020278556</v>
+        <v>536.8287693621461</v>
       </c>
       <c r="E46">
-        <v>682.515667620327</v>
+        <v>681.9352340662714</v>
       </c>
       <c r="F46">
-        <v>45.35256549931182</v>
+        <v>48.1419859688915</v>
       </c>
       <c r="G46">
-        <v>103.770811921064</v>
+        <v>102.8911229772773</v>
       </c>
       <c r="H46">
-        <v>31.14725682168234</v>
+        <v>30.40873288636034</v>
       </c>
       <c r="I46">
-        <v>24.70908295871555</v>
+        <v>26.35512728661791</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1770,28 +1770,28 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>429.6404058045211</v>
+        <v>407.1006231883782</v>
       </c>
       <c r="C47">
-        <v>466.316535234271</v>
+        <v>467.1322796853939</v>
       </c>
       <c r="D47">
-        <v>532.2070448866058</v>
+        <v>530.5941077456469</v>
       </c>
       <c r="E47">
-        <v>682.3258999976823</v>
+        <v>678.4716922327856</v>
       </c>
       <c r="F47">
-        <v>48.17224595172181</v>
+        <v>45.78063515771888</v>
       </c>
       <c r="G47">
-        <v>105.2650533464019</v>
+        <v>101.8663348233358</v>
       </c>
       <c r="H47">
-        <v>25.71491196575035</v>
+        <v>25.9400139483915</v>
       </c>
       <c r="I47">
-        <v>23.25810534438474</v>
+        <v>22.44222668172988</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1799,28 +1799,28 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>402.57305307822</v>
+        <v>400.0831803206507</v>
       </c>
       <c r="C48">
-        <v>475.158192181917</v>
+        <v>477.3709446417877</v>
       </c>
       <c r="D48">
-        <v>530.5097439971593</v>
+        <v>539.3031414010636</v>
       </c>
       <c r="E48">
-        <v>678.7970710451151</v>
+        <v>683.8774322429751</v>
       </c>
       <c r="F48">
-        <v>47.03975741369156</v>
+        <v>44.17840566661089</v>
       </c>
       <c r="G48">
-        <v>101.8212037351313</v>
+        <v>103.714553333413</v>
       </c>
       <c r="H48">
-        <v>50.36196107852091</v>
+        <v>29.7323502192959</v>
       </c>
       <c r="I48">
-        <v>25.86435659453693</v>
+        <v>24.70598612832061</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1828,28 +1828,28 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>400.4723316448944</v>
+        <v>401.0531917909869</v>
       </c>
       <c r="C49">
-        <v>469.8663485249378</v>
+        <v>469.9010362581477</v>
       </c>
       <c r="D49">
-        <v>542.131341921539</v>
+        <v>540.0388572288193</v>
       </c>
       <c r="E49">
-        <v>692.4791333004633</v>
+        <v>680.1191066930083</v>
       </c>
       <c r="F49">
-        <v>45.94988346823255</v>
+        <v>46.93583701943329</v>
       </c>
       <c r="G49">
-        <v>101.4570792481324</v>
+        <v>102.339121809217</v>
       </c>
       <c r="H49">
-        <v>30.85242556158942</v>
+        <v>26.43529310635559</v>
       </c>
       <c r="I49">
-        <v>26.36558463730345</v>
+        <v>25.57927212096573</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1857,28 +1857,28 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>400.9466923048699</v>
+        <v>402.0490272380064</v>
       </c>
       <c r="C50">
-        <v>469.0755961903914</v>
+        <v>471.4411778086301</v>
       </c>
       <c r="D50">
-        <v>535.1859512417439</v>
+        <v>550.6188843536834</v>
       </c>
       <c r="E50">
-        <v>680.4452382039138</v>
+        <v>684.8426653939182</v>
       </c>
       <c r="F50">
-        <v>43.35393389612194</v>
+        <v>45.27575903922326</v>
       </c>
       <c r="G50">
-        <v>103.5550997260134</v>
+        <v>102.3124451938375</v>
       </c>
       <c r="H50">
-        <v>25.74531606737003</v>
+        <v>29.15206272335411</v>
       </c>
       <c r="I50">
-        <v>25.83810889123832</v>
+        <v>25.48878813027865</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1886,28 +1886,28 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>401.9455129829238</v>
+        <v>399.7217816456907</v>
       </c>
       <c r="C51">
-        <v>471.9622290880934</v>
+        <v>468.2557369833671</v>
       </c>
       <c r="D51">
-        <v>553.4551027964864</v>
+        <v>530.5625964939035</v>
       </c>
       <c r="E51">
-        <v>681.8783390318545</v>
+        <v>680.6728398613118</v>
       </c>
       <c r="F51">
-        <v>73.05615653738336</v>
+        <v>43.59425999285885</v>
       </c>
       <c r="G51">
-        <v>102.4142996437118</v>
+        <v>102.0122365064295</v>
       </c>
       <c r="H51">
-        <v>26.12413535887121</v>
+        <v>28.88592191238684</v>
       </c>
       <c r="I51">
-        <v>35.99291469300798</v>
+        <v>32.6537147776673</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1915,28 +1915,28 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>401.8021182081609</v>
+        <v>401.1080694871806</v>
       </c>
       <c r="C52">
-        <v>470.2265595310375</v>
+        <v>468.8236477961525</v>
       </c>
       <c r="D52">
-        <v>537.0212123923475</v>
+        <v>533.6101774861129</v>
       </c>
       <c r="E52">
-        <v>683.986890335154</v>
+        <v>679.4564574182968</v>
       </c>
       <c r="F52">
-        <v>47.23060937690187</v>
+        <v>47.87448301390129</v>
       </c>
       <c r="G52">
-        <v>108.0820797756728</v>
+        <v>104.638629232462</v>
       </c>
       <c r="H52">
-        <v>30.74113212607598</v>
+        <v>25.52812149888962</v>
       </c>
       <c r="I52">
-        <v>28.89703092790207</v>
+        <v>25.76411831766441</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1944,28 +1944,28 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>405.9669540315415</v>
+        <v>401.4555554450795</v>
       </c>
       <c r="C53">
-        <v>467.9283752135727</v>
+        <v>467.6504224133803</v>
       </c>
       <c r="D53">
-        <v>530.7891696661299</v>
+        <v>546.8483112283448</v>
       </c>
       <c r="E53">
-        <v>679.7581434925406</v>
+        <v>683.1684028235754</v>
       </c>
       <c r="F53">
-        <v>44.50604391635519</v>
+        <v>48.92731200912193</v>
       </c>
       <c r="G53">
-        <v>100.5696863544829</v>
+        <v>100.7940572555723</v>
       </c>
       <c r="H53">
-        <v>26.42860994596681</v>
+        <v>33.61754467159683</v>
       </c>
       <c r="I53">
-        <v>24.02670958268493</v>
+        <v>28.61038292037749</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -1973,28 +1973,28 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>400.6654121490142</v>
+        <v>407.2709352799471</v>
       </c>
       <c r="C54">
-        <v>471.6233835937043</v>
+        <v>470.3648544271338</v>
       </c>
       <c r="D54">
-        <v>537.4132989397643</v>
+        <v>531.9569972474941</v>
       </c>
       <c r="E54">
-        <v>679.9559201397534</v>
+        <v>682.2445587275355</v>
       </c>
       <c r="F54">
-        <v>52.34919359437998</v>
+        <v>50.16969738233782</v>
       </c>
       <c r="G54">
-        <v>103.1138656554255</v>
+        <v>104.9769542672987</v>
       </c>
       <c r="H54">
-        <v>30.6994354793836</v>
+        <v>26.35104897613511</v>
       </c>
       <c r="I54">
-        <v>27.28690338780699</v>
+        <v>31.57812893987166</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2002,28 +2002,28 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>403.6011397266298</v>
+        <v>405.4162918190612</v>
       </c>
       <c r="C55">
-        <v>471.3638430898644</v>
+        <v>469.5829273134827</v>
       </c>
       <c r="D55">
-        <v>534.8843034138046</v>
+        <v>539.5583860434424</v>
       </c>
       <c r="E55">
-        <v>681.5302050194977</v>
+        <v>684.4570854461215</v>
       </c>
       <c r="F55">
-        <v>45.04245301628426</v>
+        <v>69.08056947370225</v>
       </c>
       <c r="G55">
-        <v>114.1289840009451</v>
+        <v>111.0521497625075</v>
       </c>
       <c r="H55">
-        <v>28.92729894146794</v>
+        <v>26.57743498794727</v>
       </c>
       <c r="I55">
-        <v>44.47040239731267</v>
+        <v>29.26594466131752</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2031,28 +2031,28 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>399.9195869998853</v>
+        <v>402.519335344177</v>
       </c>
       <c r="C56">
-        <v>471.5749543595733</v>
+        <v>466.3844252435362</v>
       </c>
       <c r="D56">
-        <v>536.4780192156776</v>
+        <v>530.1185720017029</v>
       </c>
       <c r="E56">
-        <v>679.453022527572</v>
+        <v>678.4618745003779</v>
       </c>
       <c r="F56">
-        <v>51.3504534764017</v>
+        <v>48.48818896159909</v>
       </c>
       <c r="G56">
-        <v>103.1071744805639</v>
+        <v>104.8515033551777</v>
       </c>
       <c r="H56">
-        <v>24.89596774624642</v>
+        <v>29.9248718882054</v>
       </c>
       <c r="I56">
-        <v>28.47588945159765</v>
+        <v>30.04544127419535</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2060,28 +2060,28 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>404.6205869543085</v>
+        <v>399.9740710002194</v>
       </c>
       <c r="C57">
-        <v>466.7095301685727</v>
+        <v>466.1060642281172</v>
       </c>
       <c r="D57">
-        <v>530.9499775556293</v>
+        <v>535.7238349654617</v>
       </c>
       <c r="E57">
-        <v>683.5120028776842</v>
+        <v>683.2436466810311</v>
       </c>
       <c r="F57">
-        <v>46.71109908533484</v>
+        <v>43.67991262329207</v>
       </c>
       <c r="G57">
-        <v>100.9836165895782</v>
+        <v>101.3366259449629</v>
       </c>
       <c r="H57">
-        <v>29.84560162296434</v>
+        <v>26.5756100088063</v>
       </c>
       <c r="I57">
-        <v>26.78031954737527</v>
+        <v>40.95443946781909</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2089,28 +2089,28 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>400.2559989668193</v>
+        <v>407.4041696893608</v>
       </c>
       <c r="C58">
-        <v>466.4155399192344</v>
+        <v>475.0136403726418</v>
       </c>
       <c r="D58">
-        <v>532.8868466115646</v>
+        <v>532.5259134364827</v>
       </c>
       <c r="E58">
-        <v>682.1758046710675</v>
+        <v>700.3614618647343</v>
       </c>
       <c r="F58">
-        <v>46.85973475854377</v>
+        <v>43.71214922423399</v>
       </c>
       <c r="G58">
-        <v>101.9062034261295</v>
+        <v>105.5464282201125</v>
       </c>
       <c r="H58">
-        <v>29.3343982088947</v>
+        <v>26.84674284677759</v>
       </c>
       <c r="I58">
-        <v>25.62419675024832</v>
+        <v>21.86382290432629</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2118,28 +2118,28 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>405.4043796912998</v>
+        <v>402.4098280725669</v>
       </c>
       <c r="C59">
-        <v>467.4244214040429</v>
+        <v>493.5651813336457</v>
       </c>
       <c r="D59">
-        <v>532.9885291258572</v>
+        <v>531.7924418735309</v>
       </c>
       <c r="E59">
-        <v>680.4282935517357</v>
+        <v>691.3882169854611</v>
       </c>
       <c r="F59">
-        <v>51.27885856304431</v>
+        <v>49.11267546163768</v>
       </c>
       <c r="G59">
-        <v>101.6086081488732</v>
+        <v>101.2301890811182</v>
       </c>
       <c r="H59">
-        <v>26.17344106217911</v>
+        <v>29.1025688704131</v>
       </c>
       <c r="I59">
-        <v>35.16171431343074</v>
+        <v>22.9497862700456</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2147,28 +2147,28 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>399.9628541597434</v>
+        <v>400.8829600893155</v>
       </c>
       <c r="C60">
-        <v>469.6648398549422</v>
+        <v>483.7896122758754</v>
       </c>
       <c r="D60">
-        <v>531.9159983610765</v>
+        <v>542.6446293982144</v>
       </c>
       <c r="E60">
-        <v>683.5830817065191</v>
+        <v>683.9660065273647</v>
       </c>
       <c r="F60">
-        <v>45.98002107959546</v>
+        <v>51.29350902121853</v>
       </c>
       <c r="G60">
-        <v>116.4186150627643</v>
+        <v>102.1636916602694</v>
       </c>
       <c r="H60">
-        <v>26.5926493372297</v>
+        <v>32.20603700218583</v>
       </c>
       <c r="I60">
-        <v>23.68221614541413</v>
+        <v>24.57991194759386</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2176,28 +2176,28 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>401.6387507231559</v>
+        <v>399.8437419219057</v>
       </c>
       <c r="C61">
-        <v>468.7651079554306</v>
+        <v>471.3337320703761</v>
       </c>
       <c r="D61">
-        <v>534.0274303291071</v>
+        <v>537.4878186636985</v>
       </c>
       <c r="E61">
-        <v>679.4071962568887</v>
+        <v>684.7806753109174</v>
       </c>
       <c r="F61">
-        <v>48.12323476666647</v>
+        <v>46.68932635154424</v>
       </c>
       <c r="G61">
-        <v>106.2957120086198</v>
+        <v>102.0438681271552</v>
       </c>
       <c r="H61">
-        <v>38.60250351473728</v>
+        <v>26.41153137759622</v>
       </c>
       <c r="I61">
-        <v>29.39474232450968</v>
+        <v>27.21470546880654</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2205,28 +2205,28 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>400.9826685863069</v>
+        <v>413.8486494010141</v>
       </c>
       <c r="C62">
-        <v>472.008553739286</v>
+        <v>492.8375482551834</v>
       </c>
       <c r="D62">
-        <v>531.3887672032338</v>
+        <v>533.5159954380586</v>
       </c>
       <c r="E62">
-        <v>679.2400274334844</v>
+        <v>678.6613950483035</v>
       </c>
       <c r="F62">
-        <v>47.46970044223762</v>
+        <v>44.3856312641233</v>
       </c>
       <c r="G62">
-        <v>110.869398728693</v>
+        <v>103.3283873140135</v>
       </c>
       <c r="H62">
-        <v>35.37383604325328</v>
+        <v>30.73035398963883</v>
       </c>
       <c r="I62">
-        <v>34.68716009296336</v>
+        <v>25.30866238069684</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2234,28 +2234,28 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>402.0190880642702</v>
+        <v>403.9941710742844</v>
       </c>
       <c r="C63">
-        <v>467.5810010518967</v>
+        <v>467.7636446567524</v>
       </c>
       <c r="D63">
-        <v>532.0197556246712</v>
+        <v>531.2329197088663</v>
       </c>
       <c r="E63">
-        <v>678.7267109034022</v>
+        <v>680.0494426046944</v>
       </c>
       <c r="F63">
-        <v>43.85600609608368</v>
+        <v>46.41683765008303</v>
       </c>
       <c r="G63">
-        <v>103.4399621123496</v>
+        <v>100.4529957828596</v>
       </c>
       <c r="H63">
-        <v>27.27647304609538</v>
+        <v>25.49922251542194</v>
       </c>
       <c r="I63">
-        <v>23.73409330722245</v>
+        <v>22.22324219948999</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2263,28 +2263,28 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>399.8427000270705</v>
+        <v>399.8612499500974</v>
       </c>
       <c r="C64">
-        <v>471.1323176262446</v>
+        <v>466.1994182396531</v>
       </c>
       <c r="D64">
-        <v>532.8692191209821</v>
+        <v>541.9984465725657</v>
       </c>
       <c r="E64">
-        <v>681.6823431180196</v>
+        <v>689.3099428127869</v>
       </c>
       <c r="F64">
-        <v>45.89462400940866</v>
+        <v>45.82109185344116</v>
       </c>
       <c r="G64">
-        <v>100.7158721928965</v>
+        <v>106.5626343013726</v>
       </c>
       <c r="H64">
-        <v>26.80926616838353</v>
+        <v>32.60241400918486</v>
       </c>
       <c r="I64">
-        <v>23.30596107984378</v>
+        <v>35.30011869757195</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2292,28 +2292,28 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>402.360143494291</v>
+        <v>399.4454619451803</v>
       </c>
       <c r="C65">
-        <v>468.2256116255975</v>
+        <v>484.3244296339039</v>
       </c>
       <c r="D65">
-        <v>531.9411005475404</v>
+        <v>539.5188317803864</v>
       </c>
       <c r="E65">
-        <v>680.781581978787</v>
+        <v>679.2093390127815</v>
       </c>
       <c r="F65">
-        <v>46.31889126615286</v>
+        <v>47.60189784639967</v>
       </c>
       <c r="G65">
-        <v>107.5370265487361</v>
+        <v>129.5177490200794</v>
       </c>
       <c r="H65">
-        <v>34.79673867933829</v>
+        <v>48.20678912740522</v>
       </c>
       <c r="I65">
-        <v>38.98452830410929</v>
+        <v>26.99048829245757</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2321,28 +2321,28 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>408.0965044218383</v>
+        <v>403.7361449487566</v>
       </c>
       <c r="C66">
-        <v>505.5637688872907</v>
+        <v>466.1562550689389</v>
       </c>
       <c r="D66">
-        <v>534.5682697989754</v>
+        <v>541.5113465560856</v>
       </c>
       <c r="E66">
-        <v>687.435512907687</v>
+        <v>680.0070413676168</v>
       </c>
       <c r="F66">
-        <v>45.43239749496166</v>
+        <v>47.92966474358725</v>
       </c>
       <c r="G66">
-        <v>100.5052264794901</v>
+        <v>108.3454660014155</v>
       </c>
       <c r="H66">
-        <v>25.93809453325607</v>
+        <v>38.36826859178222</v>
       </c>
       <c r="I66">
-        <v>27.20215510263307</v>
+        <v>31.14424490124514</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2350,28 +2350,28 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>401.7779282745731</v>
+        <v>402.5671299743158</v>
       </c>
       <c r="C67">
-        <v>468.7018308042335</v>
+        <v>471.6248945209364</v>
       </c>
       <c r="D67">
-        <v>537.7147035127117</v>
+        <v>532.1394849256608</v>
       </c>
       <c r="E67">
-        <v>679.6824833926169</v>
+        <v>698.0741063509749</v>
       </c>
       <c r="F67">
-        <v>44.68136858731097</v>
+        <v>49.36105544804585</v>
       </c>
       <c r="G67">
-        <v>104.6944369769103</v>
+        <v>104.2997888091156</v>
       </c>
       <c r="H67">
-        <v>25.19213052826666</v>
+        <v>40.37330001066466</v>
       </c>
       <c r="I67">
-        <v>25.82960889418331</v>
+        <v>31.84573819866549</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2379,28 +2379,28 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>403.4851669423374</v>
+        <v>407.1784809545896</v>
       </c>
       <c r="C68">
-        <v>467.5836804777466</v>
+        <v>488.7443801660917</v>
       </c>
       <c r="D68">
-        <v>541.5540769132332</v>
+        <v>532.5447113903081</v>
       </c>
       <c r="E68">
-        <v>680.3148551709538</v>
+        <v>680.0429750592422</v>
       </c>
       <c r="F68">
-        <v>48.10728992440845</v>
+        <v>50.64548455628236</v>
       </c>
       <c r="G68">
-        <v>107.9351333055946</v>
+        <v>103.0205521009583</v>
       </c>
       <c r="H68">
-        <v>47.6486352224724</v>
+        <v>28.01631928798234</v>
       </c>
       <c r="I68">
-        <v>23.16083793878284</v>
+        <v>24.49978150015684</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2408,28 +2408,28 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>400.9801452113059</v>
+        <v>410.2686822501909</v>
       </c>
       <c r="C69">
-        <v>469.9992450342812</v>
+        <v>467.2222615738879</v>
       </c>
       <c r="D69">
-        <v>531.9111034059003</v>
+        <v>544.7899171634932</v>
       </c>
       <c r="E69">
-        <v>680.6878897641843</v>
+        <v>682.7385009319713</v>
       </c>
       <c r="F69">
-        <v>49.68490590848219</v>
+        <v>43.63896725640139</v>
       </c>
       <c r="G69">
-        <v>127.292735530926</v>
+        <v>101.7324888649348</v>
       </c>
       <c r="H69">
-        <v>30.66470369166942</v>
+        <v>25.88625535781791</v>
       </c>
       <c r="I69">
-        <v>31.3067138986131</v>
+        <v>35.29224066703981</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2437,28 +2437,28 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>405.6241510849354</v>
+        <v>402.9258122521981</v>
       </c>
       <c r="C70">
-        <v>469.0920612517264</v>
+        <v>469.4203846150031</v>
       </c>
       <c r="D70">
-        <v>531.0558028380163</v>
+        <v>532.3538949290164</v>
       </c>
       <c r="E70">
-        <v>680.325780211963</v>
+        <v>689.0958542531171</v>
       </c>
       <c r="F70">
-        <v>50.69901865111967</v>
+        <v>45.13691378429952</v>
       </c>
       <c r="G70">
-        <v>103.2897600484705</v>
+        <v>104.7470421126932</v>
       </c>
       <c r="H70">
-        <v>27.4910169446528</v>
+        <v>25.96998200548922</v>
       </c>
       <c r="I70">
-        <v>23.97558484486968</v>
+        <v>27.96025022043178</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2466,28 +2466,28 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>408.9823893550686</v>
+        <v>403.1476818686913</v>
       </c>
       <c r="C71">
-        <v>471.9550466720664</v>
+        <v>468.856025723172</v>
       </c>
       <c r="D71">
-        <v>556.5630806444522</v>
+        <v>534.8969682904884</v>
       </c>
       <c r="E71">
-        <v>682.0627751084845</v>
+        <v>682.7500245137534</v>
       </c>
       <c r="F71">
-        <v>43.33969085540414</v>
+        <v>47.72506203628512</v>
       </c>
       <c r="G71">
-        <v>102.0774175602274</v>
+        <v>100.0943579407145</v>
       </c>
       <c r="H71">
-        <v>24.53502920816554</v>
+        <v>24.88675118246228</v>
       </c>
       <c r="I71">
-        <v>25.52994888665546</v>
+        <v>24.16955213467594</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2495,28 +2495,28 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>408.0630229131926</v>
+        <v>400.2950863202373</v>
       </c>
       <c r="C72">
-        <v>466.8859041434837</v>
+        <v>471.6569986481113</v>
       </c>
       <c r="D72">
-        <v>541.0695000960146</v>
+        <v>543.5097977702819</v>
       </c>
       <c r="E72">
-        <v>684.9195250418775</v>
+        <v>681.2872869362856</v>
       </c>
       <c r="F72">
-        <v>47.18562111949596</v>
+        <v>45.84468303581111</v>
       </c>
       <c r="G72">
-        <v>103.4627672196305</v>
+        <v>106.4276505054584</v>
       </c>
       <c r="H72">
-        <v>26.09041329097321</v>
+        <v>27.55906925098982</v>
       </c>
       <c r="I72">
-        <v>24.07037016710175</v>
+        <v>27.34318294012601</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2524,28 +2524,28 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>406.5392611833327</v>
+        <v>408.9854709652018</v>
       </c>
       <c r="C73">
-        <v>467.9190083409429</v>
+        <v>469.3926343959091</v>
       </c>
       <c r="D73">
-        <v>531.7461401352987</v>
+        <v>534.9789147727045</v>
       </c>
       <c r="E73">
-        <v>682.5769108894769</v>
+        <v>679.1608952389619</v>
       </c>
       <c r="F73">
-        <v>46.46559771564893</v>
+        <v>42.7766089780748</v>
       </c>
       <c r="G73">
-        <v>113.3945544328127</v>
+        <v>101.6650331679422</v>
       </c>
       <c r="H73">
-        <v>26.89369637189087</v>
+        <v>34.83814481080098</v>
       </c>
       <c r="I73">
-        <v>25.85727701026724</v>
+        <v>28.99582906244807</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2553,28 +2553,28 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>400.6563393100687</v>
+        <v>399.2320869690412</v>
       </c>
       <c r="C74">
-        <v>472.3814534053201</v>
+        <v>474.9925521967424</v>
       </c>
       <c r="D74">
-        <v>531.8981429361912</v>
+        <v>530.9055785407891</v>
       </c>
       <c r="E74">
-        <v>679.1823994588522</v>
+        <v>691.2204572993345</v>
       </c>
       <c r="F74">
-        <v>43.71198139524707</v>
+        <v>46.18107292955277</v>
       </c>
       <c r="G74">
-        <v>105.9987911539013</v>
+        <v>109.3049321042363</v>
       </c>
       <c r="H74">
-        <v>30.46267854685798</v>
+        <v>33.49572065259316</v>
       </c>
       <c r="I74">
-        <v>22.96378481622651</v>
+        <v>26.44767667066101</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2582,28 +2582,28 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>403.411763784226</v>
+        <v>401.9268174383766</v>
       </c>
       <c r="C75">
-        <v>475.0263508712717</v>
+        <v>470.3827364288032</v>
       </c>
       <c r="D75">
-        <v>532.8990829828322</v>
+        <v>534.7563589587243</v>
       </c>
       <c r="E75">
-        <v>688.4639861839332</v>
+        <v>684.0354105839772</v>
       </c>
       <c r="F75">
-        <v>44.10068217850527</v>
+        <v>55.90313505080375</v>
       </c>
       <c r="G75">
-        <v>102.4969047302596</v>
+        <v>105.6636202581572</v>
       </c>
       <c r="H75">
-        <v>32.7832600064665</v>
+        <v>42.00176826759319</v>
       </c>
       <c r="I75">
-        <v>35.92366617486112</v>
+        <v>28.72713176851716</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2611,28 +2611,28 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>400.6474242950301</v>
+        <v>401.113219027221</v>
       </c>
       <c r="C76">
-        <v>467.5616619846379</v>
+        <v>468.9998171730234</v>
       </c>
       <c r="D76">
-        <v>535.2273182922588</v>
+        <v>533.3063041030236</v>
       </c>
       <c r="E76">
-        <v>683.2377025443184</v>
+        <v>680.763120257232</v>
       </c>
       <c r="F76">
-        <v>45.41434334327968</v>
+        <v>44.68923089170561</v>
       </c>
       <c r="G76">
-        <v>103.3539117206695</v>
+        <v>107.4461925391084</v>
       </c>
       <c r="H76">
-        <v>27.72038940123538</v>
+        <v>25.25528270301072</v>
       </c>
       <c r="I76">
-        <v>22.95902063916535</v>
+        <v>27.76098461362678</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2640,28 +2640,28 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>402.7687973621956</v>
+        <v>404.666711539244</v>
       </c>
       <c r="C77">
-        <v>471.9975673140962</v>
+        <v>468.2688362843744</v>
       </c>
       <c r="D77">
-        <v>533.0294917805734</v>
+        <v>530.7876281204088</v>
       </c>
       <c r="E77">
-        <v>679.7799171678711</v>
+        <v>679.089936253758</v>
       </c>
       <c r="F77">
-        <v>44.13354158146613</v>
+        <v>42.82550922962237</v>
       </c>
       <c r="G77">
-        <v>119.2871725758852</v>
+        <v>104.3710484890136</v>
       </c>
       <c r="H77">
-        <v>30.41140583445413</v>
+        <v>25.85854562372661</v>
       </c>
       <c r="I77">
-        <v>23.43059734140444</v>
+        <v>27.370882333976</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2669,28 +2669,28 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>401.3637169069361</v>
+        <v>403.49722753753</v>
       </c>
       <c r="C78">
-        <v>473.2568473554621</v>
+        <v>473.5324530559087</v>
       </c>
       <c r="D78">
-        <v>541.3294296100833</v>
+        <v>535.6424468989449</v>
       </c>
       <c r="E78">
-        <v>682.0170691307026</v>
+        <v>683.7679462403291</v>
       </c>
       <c r="F78">
-        <v>51.84799702923797</v>
+        <v>45.44709241325145</v>
       </c>
       <c r="G78">
-        <v>104.9070844857133</v>
+        <v>100.0597797034014</v>
       </c>
       <c r="H78">
-        <v>29.57930779385103</v>
+        <v>31.08385186207278</v>
       </c>
       <c r="I78">
-        <v>27.08995034054209</v>
+        <v>22.96437345178369</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2698,28 +2698,28 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>402.7256724568699</v>
+        <v>405.5835201802513</v>
       </c>
       <c r="C79">
-        <v>469.2413445544369</v>
+        <v>467.8451453393136</v>
       </c>
       <c r="D79">
-        <v>536.8824782443597</v>
+        <v>532.420654781393</v>
       </c>
       <c r="E79">
-        <v>690.8064361791598</v>
+        <v>679.7339212429213</v>
       </c>
       <c r="F79">
-        <v>48.42824181409308</v>
+        <v>50.79960144181336</v>
       </c>
       <c r="G79">
-        <v>102.355606824576</v>
+        <v>101.4128742672526</v>
       </c>
       <c r="H79">
-        <v>33.85028765243935</v>
+        <v>27.31287001490166</v>
       </c>
       <c r="I79">
-        <v>24.0433127182519</v>
+        <v>23.40715544579605</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2727,28 +2727,28 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>403.9392185209448</v>
+        <v>401.2080951801172</v>
       </c>
       <c r="C80">
-        <v>479.4463196233792</v>
+        <v>467.6924914983176</v>
       </c>
       <c r="D80">
-        <v>536.2393033759402</v>
+        <v>531.7554850411074</v>
       </c>
       <c r="E80">
-        <v>683.2932551509804</v>
+        <v>683.7756505767389</v>
       </c>
       <c r="F80">
-        <v>45.32575456296159</v>
+        <v>47.7533585860333</v>
       </c>
       <c r="G80">
-        <v>121.8470785577637</v>
+        <v>106.3858768676139</v>
       </c>
       <c r="H80">
-        <v>32.23955585447698</v>
+        <v>28.35182040062666</v>
       </c>
       <c r="I80">
-        <v>34.38807795887286</v>
+        <v>24.40886928420049</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2756,28 +2756,28 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>401.8934503007781</v>
+        <v>400.7831061718453</v>
       </c>
       <c r="C81">
-        <v>496.647352909793</v>
+        <v>469.0952594085296</v>
       </c>
       <c r="D81">
-        <v>531.5380364787817</v>
+        <v>530.96442233248</v>
       </c>
       <c r="E81">
-        <v>680.5896814021191</v>
+        <v>685.7814855296053</v>
       </c>
       <c r="F81">
-        <v>47.81610537146346</v>
+        <v>44.94599663973045</v>
       </c>
       <c r="G81">
-        <v>144.3478664550599</v>
+        <v>100.6772830726962</v>
       </c>
       <c r="H81">
-        <v>33.72216710871123</v>
+        <v>25.18268699040143</v>
       </c>
       <c r="I81">
-        <v>27.47940950978217</v>
+        <v>25.78926247907767</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2785,28 +2785,28 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>399.9700286047666</v>
+        <v>401.5940679662223</v>
       </c>
       <c r="C82">
-        <v>471.3576842348959</v>
+        <v>472.7529334255901</v>
       </c>
       <c r="D82">
-        <v>532.2130992063934</v>
+        <v>532.7384606414289</v>
       </c>
       <c r="E82">
-        <v>688.0282019064065</v>
+        <v>688.5048216659652</v>
       </c>
       <c r="F82">
-        <v>49.94554653274638</v>
+        <v>59.6137543905303</v>
       </c>
       <c r="G82">
-        <v>100.0660682493717</v>
+        <v>103.7638886454728</v>
       </c>
       <c r="H82">
-        <v>27.96108319815764</v>
+        <v>25.94905483456464</v>
       </c>
       <c r="I82">
-        <v>27.05659733667643</v>
+        <v>28.47703559974059</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2814,28 +2814,28 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>402.9537785585779</v>
+        <v>404.1873501634407</v>
       </c>
       <c r="C83">
-        <v>478.2214461239569</v>
+        <v>470.8594207123993</v>
       </c>
       <c r="D83">
-        <v>539.2438835891935</v>
+        <v>535.7806679538003</v>
       </c>
       <c r="E83">
-        <v>680.7939690950205</v>
+        <v>681.276335166082</v>
       </c>
       <c r="F83">
-        <v>43.19612962333122</v>
+        <v>55.14429463823604</v>
       </c>
       <c r="G83">
-        <v>104.1553725229593</v>
+        <v>106.5599329273719</v>
       </c>
       <c r="H83">
-        <v>27.51248833676275</v>
+        <v>27.56508763909111</v>
       </c>
       <c r="I83">
-        <v>24.71499204559996</v>
+        <v>22.33438155076827</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2843,28 +2843,28 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>401.6599137458018</v>
+        <v>425.8653672694167</v>
       </c>
       <c r="C84">
-        <v>488.0599668297719</v>
+        <v>468.1071873536576</v>
       </c>
       <c r="D84">
-        <v>530.5073254236188</v>
+        <v>532.8334595440191</v>
       </c>
       <c r="E84">
-        <v>679.1859409751999</v>
+        <v>684.2089077766782</v>
       </c>
       <c r="F84">
-        <v>43.20633729729823</v>
+        <v>47.61107023617546</v>
       </c>
       <c r="G84">
-        <v>103.5112481396683</v>
+        <v>110.0340467126152</v>
       </c>
       <c r="H84">
-        <v>27.88570966055347</v>
+        <v>31.89905356666648</v>
       </c>
       <c r="I84">
-        <v>27.26097343889722</v>
+        <v>27.52161139745173</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2872,28 +2872,28 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>405.2953218755528</v>
+        <v>400.3810498949486</v>
       </c>
       <c r="C85">
-        <v>466.457734930309</v>
+        <v>470.0296112790932</v>
       </c>
       <c r="D85">
-        <v>531.9923616053533</v>
+        <v>579.212437374602</v>
       </c>
       <c r="E85">
-        <v>678.9388877306889</v>
+        <v>686.1067407623775</v>
       </c>
       <c r="F85">
-        <v>49.33099172462549</v>
+        <v>48.6036901056441</v>
       </c>
       <c r="G85">
-        <v>103.1858822927691</v>
+        <v>105.354373843062</v>
       </c>
       <c r="H85">
-        <v>32.83399078132317</v>
+        <v>29.09265576781611</v>
       </c>
       <c r="I85">
-        <v>31.49739800578233</v>
+        <v>24.11111804290928</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2901,28 +2901,28 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>399.9232473817724</v>
+        <v>402.6509468365838</v>
       </c>
       <c r="C86">
-        <v>469.0459726318531</v>
+        <v>466.6276642224103</v>
       </c>
       <c r="D86">
-        <v>545.6229025687796</v>
+        <v>534.1352271968008</v>
       </c>
       <c r="E86">
-        <v>679.1907737275859</v>
+        <v>683.6193449788169</v>
       </c>
       <c r="F86">
-        <v>50.21182105862228</v>
+        <v>43.84633405466597</v>
       </c>
       <c r="G86">
-        <v>101.2684785288694</v>
+        <v>103.8534569726862</v>
       </c>
       <c r="H86">
-        <v>27.96508096259733</v>
+        <v>26.64934941488809</v>
       </c>
       <c r="I86">
-        <v>21.84493885170402</v>
+        <v>27.15726207145994</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2930,28 +2930,28 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>400.8861365782021</v>
+        <v>405.2717868529965</v>
       </c>
       <c r="C87">
-        <v>468.7961544133416</v>
+        <v>472.2835763285967</v>
       </c>
       <c r="D87">
-        <v>535.561684830133</v>
+        <v>535.6794408424716</v>
       </c>
       <c r="E87">
-        <v>682.4478846321681</v>
+        <v>703.3096781361936</v>
       </c>
       <c r="F87">
-        <v>43.92791915191606</v>
+        <v>47.69893101615664</v>
       </c>
       <c r="G87">
-        <v>102.8273793305272</v>
+        <v>111.4392088395694</v>
       </c>
       <c r="H87">
-        <v>26.51890001638188</v>
+        <v>26.5142828765032</v>
       </c>
       <c r="I87">
-        <v>24.40984755051556</v>
+        <v>26.24869333822833</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2959,28 +2959,28 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>399.9534424711248</v>
+        <v>434.5065912058406</v>
       </c>
       <c r="C88">
-        <v>466.6088201981424</v>
+        <v>472.2815362520147</v>
       </c>
       <c r="D88">
-        <v>530.3743676522462</v>
+        <v>536.9426752237742</v>
       </c>
       <c r="E88">
-        <v>682.888865159636</v>
+        <v>680.1001556840605</v>
       </c>
       <c r="F88">
-        <v>49.13055685660465</v>
+        <v>50.44864764485322</v>
       </c>
       <c r="G88">
-        <v>107.795428165452</v>
+        <v>101.4057498259554</v>
       </c>
       <c r="H88">
-        <v>25.98997655929729</v>
+        <v>34.46604380908229</v>
       </c>
       <c r="I88">
-        <v>22.34113707239482</v>
+        <v>29.47404418255029</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2988,28 +2988,28 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>403.176911159895</v>
+        <v>401.2630909250358</v>
       </c>
       <c r="C89">
-        <v>468.132473944469</v>
+        <v>471.3499478968828</v>
       </c>
       <c r="D89">
-        <v>534.7129164970823</v>
+        <v>532.8090184525055</v>
       </c>
       <c r="E89">
-        <v>682.2296758409817</v>
+        <v>680.6121257569647</v>
       </c>
       <c r="F89">
-        <v>50.32061793216648</v>
+        <v>45.34499345617545</v>
       </c>
       <c r="G89">
-        <v>112.7885254190233</v>
+        <v>112.6726011098995</v>
       </c>
       <c r="H89">
-        <v>25.68301326561745</v>
+        <v>33.54896792506417</v>
       </c>
       <c r="I89">
-        <v>25.64102882691668</v>
+        <v>30.39845688901588</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3017,28 +3017,28 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>400.8017642560314</v>
+        <v>402.95125868118</v>
       </c>
       <c r="C90">
-        <v>470.8514162528847</v>
+        <v>472.245509564668</v>
       </c>
       <c r="D90">
-        <v>531.4902758485171</v>
+        <v>534.4090902875237</v>
       </c>
       <c r="E90">
-        <v>681.9044238677244</v>
+        <v>680.4219300195897</v>
       </c>
       <c r="F90">
-        <v>48.98770539738791</v>
+        <v>44.60435672085721</v>
       </c>
       <c r="G90">
-        <v>100.9804445996637</v>
+        <v>102.218918946181</v>
       </c>
       <c r="H90">
-        <v>26.03378008359413</v>
+        <v>36.74718509289554</v>
       </c>
       <c r="I90">
-        <v>22.8537461194406</v>
+        <v>25.4544044466483</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3046,28 +3046,28 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>404.7203836740932</v>
+        <v>399.8943170016508</v>
       </c>
       <c r="C91">
-        <v>467.5666698719003</v>
+        <v>469.1611504612217</v>
       </c>
       <c r="D91">
-        <v>532.1097124449315</v>
+        <v>537.011350291899</v>
       </c>
       <c r="E91">
-        <v>680.6634174238923</v>
+        <v>681.7076585577671</v>
       </c>
       <c r="F91">
-        <v>46.46269331764912</v>
+        <v>46.99683708716365</v>
       </c>
       <c r="G91">
-        <v>109.6763014096531</v>
+        <v>100.8566035715898</v>
       </c>
       <c r="H91">
-        <v>25.9288569769585</v>
+        <v>25.55311158722451</v>
       </c>
       <c r="I91">
-        <v>26.13815395382093</v>
+        <v>30.80295148060866</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3075,28 +3075,28 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>408.1730940898074</v>
+        <v>399.49494629666</v>
       </c>
       <c r="C92">
-        <v>472.0001342128766</v>
+        <v>473.3485751665595</v>
       </c>
       <c r="D92">
-        <v>532.722627984843</v>
+        <v>530.5624162156037</v>
       </c>
       <c r="E92">
-        <v>681.6219000369374</v>
+        <v>680.045043951228</v>
       </c>
       <c r="F92">
-        <v>55.32171468676555</v>
+        <v>52.80014571212295</v>
       </c>
       <c r="G92">
-        <v>105.7992385095997</v>
+        <v>100.6373530555956</v>
       </c>
       <c r="H92">
-        <v>29.42854561404039</v>
+        <v>42.01723886339967</v>
       </c>
       <c r="I92">
-        <v>24.56252571618451</v>
+        <v>22.99109071059847</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3104,28 +3104,28 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>416.9247731450432</v>
+        <v>400.8315969986451</v>
       </c>
       <c r="C93">
-        <v>469.6187751161632</v>
+        <v>473.3565344265598</v>
       </c>
       <c r="D93">
-        <v>531.3850561050982</v>
+        <v>548.2822493280748</v>
       </c>
       <c r="E93">
-        <v>680.7986182276504</v>
+        <v>693.3000435363712</v>
       </c>
       <c r="F93">
-        <v>49.62725407913614</v>
+        <v>44.70227933810269</v>
       </c>
       <c r="G93">
-        <v>110.2675173907049</v>
+        <v>100.423654078714</v>
       </c>
       <c r="H93">
-        <v>32.63601612135489</v>
+        <v>38.17041820387926</v>
       </c>
       <c r="I93">
-        <v>28.01527298735355</v>
+        <v>24.98795147592956</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3133,28 +3133,28 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>400.0366754800001</v>
+        <v>407.8859194223941</v>
       </c>
       <c r="C94">
-        <v>479.0356206022122</v>
+        <v>467.3712003667128</v>
       </c>
       <c r="D94">
-        <v>532.7695703857844</v>
+        <v>536.205558106219</v>
       </c>
       <c r="E94">
-        <v>678.6464060577185</v>
+        <v>680.3512420585178</v>
       </c>
       <c r="F94">
-        <v>44.51883325348285</v>
+        <v>46.81719811391527</v>
       </c>
       <c r="G94">
-        <v>101.7254561633467</v>
+        <v>100.4265300641863</v>
       </c>
       <c r="H94">
-        <v>25.53970907175196</v>
+        <v>34.05009212873701</v>
       </c>
       <c r="I94">
-        <v>38.20898350815101</v>
+        <v>29.29084447107128</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3162,28 +3162,28 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>400.0141085408718</v>
+        <v>405.2761955400707</v>
       </c>
       <c r="C95">
-        <v>473.1393847275234</v>
+        <v>467.8657137443828</v>
       </c>
       <c r="D95">
-        <v>555.8723575392254</v>
+        <v>530.5937951252804</v>
       </c>
       <c r="E95">
-        <v>679.9119212673982</v>
+        <v>681.0731885763327</v>
       </c>
       <c r="F95">
-        <v>45.928066627791</v>
+        <v>46.89441551083345</v>
       </c>
       <c r="G95">
-        <v>103.9286858765569</v>
+        <v>103.3351135518919</v>
       </c>
       <c r="H95">
-        <v>28.03043438511477</v>
+        <v>24.98349713204343</v>
       </c>
       <c r="I95">
-        <v>25.11522020958828</v>
+        <v>24.37153294631502</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3191,28 +3191,28 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>401.8596248029727</v>
+        <v>406.5302293483933</v>
       </c>
       <c r="C96">
-        <v>470.672325795652</v>
+        <v>480.8385418776664</v>
       </c>
       <c r="D96">
-        <v>542.2220618509472</v>
+        <v>531.5325392795024</v>
       </c>
       <c r="E96">
-        <v>680.329128105518</v>
+        <v>684.8300650498776</v>
       </c>
       <c r="F96">
-        <v>48.63910758529661</v>
+        <v>45.52278141256883</v>
       </c>
       <c r="G96">
-        <v>104.182905971324</v>
+        <v>103.0369477450888</v>
       </c>
       <c r="H96">
-        <v>27.42641517493628</v>
+        <v>36.95773099192257</v>
       </c>
       <c r="I96">
-        <v>23.04556308774642</v>
+        <v>27.09356022294291</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3220,28 +3220,28 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>400.8037977271555</v>
+        <v>411.2660271709516</v>
       </c>
       <c r="C97">
-        <v>470.2674425471624</v>
+        <v>468.9195670568293</v>
       </c>
       <c r="D97">
-        <v>531.966053213613</v>
+        <v>536.5418741680164</v>
       </c>
       <c r="E97">
-        <v>681.1868709389831</v>
+        <v>690.6240233643184</v>
       </c>
       <c r="F97">
-        <v>43.52076518663916</v>
+        <v>45.66665246094295</v>
       </c>
       <c r="G97">
-        <v>103.5602398199695</v>
+        <v>104.2833681512554</v>
       </c>
       <c r="H97">
-        <v>38.02307942450805</v>
+        <v>26.06792631825198</v>
       </c>
       <c r="I97">
-        <v>40.7697884294196</v>
+        <v>23.63466061640512</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3249,28 +3249,28 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>404.5945530355367</v>
+        <v>402.3541380954363</v>
       </c>
       <c r="C98">
-        <v>470.3322908696914</v>
+        <v>470.0741395451045</v>
       </c>
       <c r="D98">
-        <v>540.2468892163286</v>
+        <v>533.9173280121774</v>
       </c>
       <c r="E98">
-        <v>682.4462853384774</v>
+        <v>679.5739927997396</v>
       </c>
       <c r="F98">
-        <v>47.19473525681004</v>
+        <v>44.41787626459227</v>
       </c>
       <c r="G98">
-        <v>100.7160756023092</v>
+        <v>101.5855155717992</v>
       </c>
       <c r="H98">
-        <v>28.72354848307011</v>
+        <v>33.97826738360272</v>
       </c>
       <c r="I98">
-        <v>25.99217363166624</v>
+        <v>22.88143999127331</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3278,28 +3278,28 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>404.675162111017</v>
+        <v>414.6295343706695</v>
       </c>
       <c r="C99">
-        <v>477.6194723497293</v>
+        <v>473.0235752382079</v>
       </c>
       <c r="D99">
-        <v>535.5860656588238</v>
+        <v>535.2126232695927</v>
       </c>
       <c r="E99">
-        <v>689.9792035278837</v>
+        <v>683.6865709253818</v>
       </c>
       <c r="F99">
-        <v>47.48415241115439</v>
+        <v>44.15876416898816</v>
       </c>
       <c r="G99">
-        <v>104.7155948039386</v>
+        <v>103.3301748632743</v>
       </c>
       <c r="H99">
-        <v>29.86444120948128</v>
+        <v>27.29168460773275</v>
       </c>
       <c r="I99">
-        <v>23.32243864149059</v>
+        <v>26.80399244794586</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3307,28 +3307,28 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>409.0369178455122</v>
+        <v>402.3162428309432</v>
       </c>
       <c r="C100">
-        <v>471.6407768434252</v>
+        <v>467.4203288834926</v>
       </c>
       <c r="D100">
-        <v>553.3005576679619</v>
+        <v>536.1336222578378</v>
       </c>
       <c r="E100">
-        <v>681.367641354611</v>
+        <v>678.9951699325688</v>
       </c>
       <c r="F100">
-        <v>49.12348724175055</v>
+        <v>46.5512486898614</v>
       </c>
       <c r="G100">
-        <v>100.4327936197289</v>
+        <v>100.3996433255909</v>
       </c>
       <c r="H100">
-        <v>34.49228517465518</v>
+        <v>29.20386454175246</v>
       </c>
       <c r="I100">
-        <v>24.26442374303193</v>
+        <v>25.83957126020024</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3336,28 +3336,28 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>401.5915409317309</v>
+        <v>404.7928098140617</v>
       </c>
       <c r="C101">
-        <v>469.4787586107731</v>
+        <v>468.1505861374708</v>
       </c>
       <c r="D101">
-        <v>540.3723781433634</v>
+        <v>532.6291692591648</v>
       </c>
       <c r="E101">
-        <v>681.0004951035195</v>
+        <v>680.1240969732588</v>
       </c>
       <c r="F101">
-        <v>60.77234407641946</v>
+        <v>48.29363970157897</v>
       </c>
       <c r="G101">
-        <v>102.8858377503727</v>
+        <v>100.8252456307767</v>
       </c>
       <c r="H101">
-        <v>27.58268323272378</v>
+        <v>34.05166264257741</v>
       </c>
       <c r="I101">
-        <v>25.28644061190165</v>
+        <v>25.99437197612003</v>
       </c>
     </row>
   </sheetData>
@@ -3478,34 +3478,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>124.8264434669022</v>
+        <v>145.1724300373257</v>
       </c>
       <c r="C2">
-        <v>113.1037832342042</v>
+        <v>138.5090816525119</v>
       </c>
       <c r="D2">
-        <v>27.5106795952902</v>
+        <v>11.87323699408752</v>
       </c>
       <c r="E2">
-        <v>663.6159436545462</v>
+        <v>462.8110762650907</v>
       </c>
       <c r="F2">
-        <v>48.94375898689863</v>
+        <v>109.317638621317</v>
       </c>
       <c r="G2">
-        <v>37.62437471025239</v>
+        <v>31.19772407923182</v>
       </c>
       <c r="H2">
-        <v>245.1344566572514</v>
+        <v>89.72513696879209</v>
       </c>
       <c r="I2">
-        <v>79.74027694665585</v>
+        <v>34.57745149519976</v>
       </c>
       <c r="J2">
-        <v>136.0703075442545</v>
+        <v>112.4607640866437</v>
       </c>
       <c r="K2">
-        <v>66.54581814040171</v>
+        <v>62.21672352021609</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3513,34 +3513,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>198.0421816602598</v>
+        <v>136.8921355499401</v>
       </c>
       <c r="C3">
-        <v>159.1396613064024</v>
+        <v>177.507248711792</v>
       </c>
       <c r="D3">
-        <v>15.71437341744261</v>
+        <v>11.36385159042332</v>
       </c>
       <c r="E3">
-        <v>194.1262927544154</v>
+        <v>221.0855148222464</v>
       </c>
       <c r="F3">
-        <v>81.11751667982075</v>
+        <v>58.1554274803479</v>
       </c>
       <c r="G3">
-        <v>14.99980537697976</v>
+        <v>38.22257452692035</v>
       </c>
       <c r="H3">
-        <v>88.23262463379822</v>
+        <v>119.4038927594415</v>
       </c>
       <c r="I3">
-        <v>20.21831002647175</v>
+        <v>41.3170716855218</v>
       </c>
       <c r="J3">
-        <v>147.0099734310238</v>
+        <v>293.8435951674089</v>
       </c>
       <c r="K3">
-        <v>39.4330471807664</v>
+        <v>38.7277049004369</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3548,34 +3548,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>132.3069500689018</v>
+        <v>75.85870347676165</v>
       </c>
       <c r="C4">
-        <v>139.4837053916356</v>
+        <v>111.8129607816878</v>
       </c>
       <c r="D4">
-        <v>11.00350143318854</v>
+        <v>14.22726067850879</v>
       </c>
       <c r="E4">
-        <v>480.1469474101992</v>
+        <v>432.32191497948</v>
       </c>
       <c r="F4">
-        <v>136.5440228605191</v>
+        <v>62.23719420015416</v>
       </c>
       <c r="G4">
-        <v>24.26373649205891</v>
+        <v>24.24432419442224</v>
       </c>
       <c r="H4">
-        <v>70.98083470460045</v>
+        <v>189.9002656743318</v>
       </c>
       <c r="I4">
-        <v>54.48612409958496</v>
+        <v>49.92520595119649</v>
       </c>
       <c r="J4">
-        <v>155.2129517227998</v>
+        <v>128.271416870414</v>
       </c>
       <c r="K4">
-        <v>76.65196246393114</v>
+        <v>60.15155127408431</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3583,34 +3583,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>352.9419955642639</v>
+        <v>264.4073260036999</v>
       </c>
       <c r="C5">
-        <v>133.541044328222</v>
+        <v>77.11646328790819</v>
       </c>
       <c r="D5">
-        <v>18.51293847137307</v>
+        <v>15.09008437142241</v>
       </c>
       <c r="E5">
-        <v>327.7610987727332</v>
+        <v>293.7576126011443</v>
       </c>
       <c r="F5">
-        <v>50.22589752042381</v>
+        <v>48.43351307381295</v>
       </c>
       <c r="G5">
-        <v>30.54256625835869</v>
+        <v>17.72177563255543</v>
       </c>
       <c r="H5">
-        <v>194.0477118655695</v>
+        <v>316.5572832476223</v>
       </c>
       <c r="I5">
-        <v>48.93326344217307</v>
+        <v>23.26752751837297</v>
       </c>
       <c r="J5">
-        <v>126.685538715875</v>
+        <v>118.7529477920272</v>
       </c>
       <c r="K5">
-        <v>41.34793507948692</v>
+        <v>63.38712531861317</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3618,34 +3618,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>206.8814039477521</v>
+        <v>138.6634077902245</v>
       </c>
       <c r="C6">
-        <v>186.0952319930438</v>
+        <v>83.71847329945494</v>
       </c>
       <c r="D6">
-        <v>16.29306193086619</v>
+        <v>21.92331578057394</v>
       </c>
       <c r="E6">
-        <v>580.5481660035551</v>
+        <v>820.9619014571633</v>
       </c>
       <c r="F6">
-        <v>57.26158751473276</v>
+        <v>21.08512454578192</v>
       </c>
       <c r="G6">
-        <v>33.60816388413603</v>
+        <v>21.71238682528802</v>
       </c>
       <c r="H6">
-        <v>89.192244913689</v>
+        <v>69.51778518340078</v>
       </c>
       <c r="I6">
-        <v>34.08943864598681</v>
+        <v>14.07530679506555</v>
       </c>
       <c r="J6">
-        <v>57.62332717533246</v>
+        <v>188.2280746917151</v>
       </c>
       <c r="K6">
-        <v>51.91875217269638</v>
+        <v>53.21874528473065</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3653,34 +3653,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>163.0572002625789</v>
+        <v>84.19837541536394</v>
       </c>
       <c r="C7">
-        <v>96.08441078730296</v>
+        <v>131.0471391629808</v>
       </c>
       <c r="D7">
-        <v>35.76955107726893</v>
+        <v>16.07472422200409</v>
       </c>
       <c r="E7">
-        <v>475.4172867486863</v>
+        <v>469.8182340135585</v>
       </c>
       <c r="F7">
-        <v>66.68241814621658</v>
+        <v>38.47629610663992</v>
       </c>
       <c r="G7">
-        <v>24.18163580308987</v>
+        <v>13.20569201889736</v>
       </c>
       <c r="H7">
-        <v>155.257650703701</v>
+        <v>123.7569856347516</v>
       </c>
       <c r="I7">
-        <v>62.34935278718357</v>
+        <v>18.55196515534481</v>
       </c>
       <c r="J7">
-        <v>54.3529259717201</v>
+        <v>133.615475265843</v>
       </c>
       <c r="K7">
-        <v>126.4549069783224</v>
+        <v>104.3971816977361</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3688,34 +3688,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>180.7399259048223</v>
+        <v>129.3886156730884</v>
       </c>
       <c r="C8">
-        <v>171.4193659645611</v>
+        <v>66.12451013618292</v>
       </c>
       <c r="D8">
-        <v>38.51527790333605</v>
+        <v>9.242103692376293</v>
       </c>
       <c r="E8">
-        <v>1270.083259247497</v>
+        <v>470.3476008714001</v>
       </c>
       <c r="F8">
-        <v>31.44379662498088</v>
+        <v>43.88939846928106</v>
       </c>
       <c r="G8">
-        <v>44.37563415218996</v>
+        <v>21.903135817358</v>
       </c>
       <c r="H8">
-        <v>153.0399614168061</v>
+        <v>100.2180962073304</v>
       </c>
       <c r="I8">
-        <v>55.83334830045411</v>
+        <v>20.37228575707883</v>
       </c>
       <c r="J8">
-        <v>81.69178338258503</v>
+        <v>225.540084927748</v>
       </c>
       <c r="K8">
-        <v>66.44338239790011</v>
+        <v>53.56976641366857</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3723,34 +3723,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>131.2985344228033</v>
+        <v>116.9644196480791</v>
       </c>
       <c r="C9">
-        <v>250.2320216222874</v>
+        <v>165.6419066573129</v>
       </c>
       <c r="D9">
-        <v>16.43944158475254</v>
+        <v>26.88172672163403</v>
       </c>
       <c r="E9">
-        <v>619.8680102279709</v>
+        <v>410.7366982181269</v>
       </c>
       <c r="F9">
-        <v>54.78090196955068</v>
+        <v>35.41554794438607</v>
       </c>
       <c r="G9">
-        <v>32.76218045219828</v>
+        <v>29.40223411497206</v>
       </c>
       <c r="H9">
-        <v>127.6410470560034</v>
+        <v>109.4047035478124</v>
       </c>
       <c r="I9">
-        <v>25.2398262906871</v>
+        <v>32.61487362893035</v>
       </c>
       <c r="J9">
-        <v>185.030565442592</v>
+        <v>128.0670385797521</v>
       </c>
       <c r="K9">
-        <v>82.03817045310095</v>
+        <v>41.02136821258593</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3758,34 +3758,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>80.73702368954612</v>
+        <v>44.25269363545394</v>
       </c>
       <c r="C10">
-        <v>150.9278344329625</v>
+        <v>131.3198201533764</v>
       </c>
       <c r="D10">
-        <v>14.76462861342612</v>
+        <v>10.66842670620129</v>
       </c>
       <c r="E10">
-        <v>510.7872604890832</v>
+        <v>327.3126825091513</v>
       </c>
       <c r="F10">
-        <v>101.4083728172807</v>
+        <v>36.51204226939205</v>
       </c>
       <c r="G10">
-        <v>96.13583670008603</v>
+        <v>23.632141560857</v>
       </c>
       <c r="H10">
-        <v>184.6685173625688</v>
+        <v>188.0640831135669</v>
       </c>
       <c r="I10">
-        <v>25.68910627514369</v>
+        <v>16.10762641285753</v>
       </c>
       <c r="J10">
-        <v>144.9119841109952</v>
+        <v>61.92293679578656</v>
       </c>
       <c r="K10">
-        <v>72.57602726318912</v>
+        <v>38.06729144018551</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3793,34 +3793,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>233.2349458401462</v>
+        <v>109.2620038332053</v>
       </c>
       <c r="C11">
-        <v>262.9853168338928</v>
+        <v>224.5629840080055</v>
       </c>
       <c r="D11">
-        <v>22.00157100382418</v>
+        <v>9.630872602376039</v>
       </c>
       <c r="E11">
-        <v>431.3739407672097</v>
+        <v>668.6652398284679</v>
       </c>
       <c r="F11">
-        <v>73.25438518342828</v>
+        <v>57.81017313871609</v>
       </c>
       <c r="G11">
-        <v>64.88320242962948</v>
+        <v>36.72419650196943</v>
       </c>
       <c r="H11">
-        <v>167.2710678910601</v>
+        <v>121.0425236042829</v>
       </c>
       <c r="I11">
-        <v>45.26800035927852</v>
+        <v>26.80619475827716</v>
       </c>
       <c r="J11">
-        <v>220.7278569922105</v>
+        <v>166.6894457570788</v>
       </c>
       <c r="K11">
-        <v>146.6600387625611</v>
+        <v>40.4946353668512</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3828,34 +3828,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>154.1308304578763</v>
+        <v>86.39800309261696</v>
       </c>
       <c r="C12">
-        <v>200.696390372807</v>
+        <v>194.5562140548317</v>
       </c>
       <c r="D12">
-        <v>37.4889733219436</v>
+        <v>16.26327677214083</v>
       </c>
       <c r="E12">
-        <v>545.5243611952851</v>
+        <v>330.2864369567361</v>
       </c>
       <c r="F12">
-        <v>73.82046606364861</v>
+        <v>39.27732089419822</v>
       </c>
       <c r="G12">
-        <v>26.64576414883026</v>
+        <v>27.17183293925017</v>
       </c>
       <c r="H12">
-        <v>112.4221358437047</v>
+        <v>95.23008959045629</v>
       </c>
       <c r="I12">
-        <v>19.75616218667237</v>
+        <v>27.4296606892343</v>
       </c>
       <c r="J12">
-        <v>541.6583094253847</v>
+        <v>123.9261281716294</v>
       </c>
       <c r="K12">
-        <v>30.07422412053163</v>
+        <v>33.49930246042254</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3863,34 +3863,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>151.785564873262</v>
+        <v>86.65425260520406</v>
       </c>
       <c r="C13">
-        <v>98.99304497049006</v>
+        <v>107.1306711622039</v>
       </c>
       <c r="D13">
-        <v>21.63461318218954</v>
+        <v>23.48638023666838</v>
       </c>
       <c r="E13">
-        <v>837.3286198805723</v>
+        <v>284.8050527424554</v>
       </c>
       <c r="F13">
-        <v>79.86666373224018</v>
+        <v>70.84477727719224</v>
       </c>
       <c r="G13">
-        <v>27.93924826444571</v>
+        <v>17.19206671989154</v>
       </c>
       <c r="H13">
-        <v>299.5387041294354</v>
+        <v>118.1275351063161</v>
       </c>
       <c r="I13">
-        <v>79.19789561514212</v>
+        <v>33.88286358111328</v>
       </c>
       <c r="J13">
-        <v>160.5674228606885</v>
+        <v>132.922094689308</v>
       </c>
       <c r="K13">
-        <v>35.38006566027801</v>
+        <v>51.59922871577223</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3898,34 +3898,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>85.03610332237604</v>
+        <v>93.45742505524453</v>
       </c>
       <c r="C14">
-        <v>230.2241581266292</v>
+        <v>96.74280674545408</v>
       </c>
       <c r="D14">
-        <v>14.7586216765571</v>
+        <v>12.48413196857732</v>
       </c>
       <c r="E14">
-        <v>1629.879095693169</v>
+        <v>246.7833686818583</v>
       </c>
       <c r="F14">
-        <v>56.85315957651608</v>
+        <v>40.16463508329644</v>
       </c>
       <c r="G14">
-        <v>35.13800715340319</v>
+        <v>28.16626228681431</v>
       </c>
       <c r="H14">
-        <v>148.7422875117709</v>
+        <v>132.4780988694059</v>
       </c>
       <c r="I14">
-        <v>43.5250745164288</v>
+        <v>31.41467831873522</v>
       </c>
       <c r="J14">
-        <v>283.6960248749348</v>
+        <v>98.75571458332207</v>
       </c>
       <c r="K14">
-        <v>60.18810223301463</v>
+        <v>52.12414543945675</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3933,34 +3933,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>101.2471836314943</v>
+        <v>115.1139264828759</v>
       </c>
       <c r="C15">
-        <v>107.6625827580569</v>
+        <v>108.022183202266</v>
       </c>
       <c r="D15">
-        <v>16.17964847907215</v>
+        <v>19.04610901905733</v>
       </c>
       <c r="E15">
-        <v>458.3177549887521</v>
+        <v>339.663959712043</v>
       </c>
       <c r="F15">
-        <v>49.39977042997798</v>
+        <v>126.7353620458241</v>
       </c>
       <c r="G15">
-        <v>20.51811646274937</v>
+        <v>29.78600968908165</v>
       </c>
       <c r="H15">
-        <v>159.8287558464222</v>
+        <v>138.3282439589632</v>
       </c>
       <c r="I15">
-        <v>37.5934719140734</v>
+        <v>15.15748086795012</v>
       </c>
       <c r="J15">
-        <v>201.1978502451681</v>
+        <v>132.9828727372379</v>
       </c>
       <c r="K15">
-        <v>78.8229228701702</v>
+        <v>45.91772314007027</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3968,34 +3968,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>137.3426075912132</v>
+        <v>150.3738113851304</v>
       </c>
       <c r="C16">
-        <v>194.8500765613572</v>
+        <v>108.6142299256539</v>
       </c>
       <c r="D16">
-        <v>15.53581899383002</v>
+        <v>18.47632790865191</v>
       </c>
       <c r="E16">
-        <v>539.1009685523761</v>
+        <v>193.0583068302352</v>
       </c>
       <c r="F16">
-        <v>99.79621458639986</v>
+        <v>48.89980434480125</v>
       </c>
       <c r="G16">
-        <v>80.43235122415605</v>
+        <v>23.40299373980799</v>
       </c>
       <c r="H16">
-        <v>325.6766857355295</v>
+        <v>93.46942760800364</v>
       </c>
       <c r="I16">
-        <v>32.80864090531152</v>
+        <v>24.99807592004409</v>
       </c>
       <c r="J16">
-        <v>199.5733550078978</v>
+        <v>114.3846331862753</v>
       </c>
       <c r="K16">
-        <v>35.52926451819755</v>
+        <v>33.54760193040244</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -4003,34 +4003,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>212.9952105641204</v>
+        <v>63.28943663526019</v>
       </c>
       <c r="C17">
-        <v>168.1910831665002</v>
+        <v>164.7826224031471</v>
       </c>
       <c r="D17">
-        <v>16.29830377897962</v>
+        <v>14.36189578298279</v>
       </c>
       <c r="E17">
-        <v>1092.224152978159</v>
+        <v>569.2084567860082</v>
       </c>
       <c r="F17">
-        <v>61.72325168702034</v>
+        <v>61.12287552700266</v>
       </c>
       <c r="G17">
-        <v>40.50377665956166</v>
+        <v>30.76629494781967</v>
       </c>
       <c r="H17">
-        <v>286.9752539062665</v>
+        <v>177.3759131970017</v>
       </c>
       <c r="I17">
-        <v>94.08792662872438</v>
+        <v>19.4664632098956</v>
       </c>
       <c r="J17">
-        <v>139.519197434853</v>
+        <v>124.78488542157</v>
       </c>
       <c r="K17">
-        <v>65.64023167374178</v>
+        <v>58.67319457111786</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -4038,34 +4038,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>123.8704740620446</v>
+        <v>252.2788153376497</v>
       </c>
       <c r="C18">
-        <v>178.5227625735839</v>
+        <v>164.2284151634132</v>
       </c>
       <c r="D18">
-        <v>14.30104174746035</v>
+        <v>9.030933128929126</v>
       </c>
       <c r="E18">
-        <v>354.9587767671735</v>
+        <v>458.4344737078313</v>
       </c>
       <c r="F18">
-        <v>61.14527834285329</v>
+        <v>49.55271950397066</v>
       </c>
       <c r="G18">
-        <v>20.56319103738025</v>
+        <v>39.68938735604713</v>
       </c>
       <c r="H18">
-        <v>171.8789538795411</v>
+        <v>105.8628786026168</v>
       </c>
       <c r="I18">
-        <v>55.03964446903066</v>
+        <v>18.79968446361876</v>
       </c>
       <c r="J18">
-        <v>85.42368761989344</v>
+        <v>102.7993810498111</v>
       </c>
       <c r="K18">
-        <v>47.02601152264386</v>
+        <v>104.2575517031254</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -4073,34 +4073,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>91.80104977737018</v>
+        <v>147.3236530623546</v>
       </c>
       <c r="C19">
-        <v>201.5791153278127</v>
+        <v>91.81873148348996</v>
       </c>
       <c r="D19">
-        <v>17.45702647253066</v>
+        <v>8.159144992582178</v>
       </c>
       <c r="E19">
-        <v>366.6430212227173</v>
+        <v>156.801689836935</v>
       </c>
       <c r="F19">
-        <v>59.52037476284504</v>
+        <v>31.20372084490349</v>
       </c>
       <c r="G19">
-        <v>26.47448297407123</v>
+        <v>29.27415452636574</v>
       </c>
       <c r="H19">
-        <v>156.469514948078</v>
+        <v>139.7570457843921</v>
       </c>
       <c r="I19">
-        <v>39.26109372927259</v>
+        <v>33.65280930368866</v>
       </c>
       <c r="J19">
-        <v>378.0586801083788</v>
+        <v>90.79258270180605</v>
       </c>
       <c r="K19">
-        <v>73.86298395521715</v>
+        <v>49.66415638798899</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -4108,34 +4108,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>124.2153171942778</v>
+        <v>170.0735170542659</v>
       </c>
       <c r="C20">
-        <v>91.83776083545418</v>
+        <v>88.63788118567804</v>
       </c>
       <c r="D20">
-        <v>18.25040993124921</v>
+        <v>7.657951157183537</v>
       </c>
       <c r="E20">
-        <v>592.1131347129933</v>
+        <v>261.7243930500096</v>
       </c>
       <c r="F20">
-        <v>73.35758400023239</v>
+        <v>52.1634122515258</v>
       </c>
       <c r="G20">
-        <v>18.84152589396085</v>
+        <v>34.65544411820475</v>
       </c>
       <c r="H20">
-        <v>115.8545637282069</v>
+        <v>164.6582971462476</v>
       </c>
       <c r="I20">
-        <v>30.57916599356035</v>
+        <v>22.45982496943114</v>
       </c>
       <c r="J20">
-        <v>89.28567797080701</v>
+        <v>177.8031514672637</v>
       </c>
       <c r="K20">
-        <v>37.4935199111274</v>
+        <v>69.09634101568955</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -4143,34 +4143,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>140.8524825266148</v>
+        <v>181.4814614353591</v>
       </c>
       <c r="C21">
-        <v>324.3323828836333</v>
+        <v>88.46100724821908</v>
       </c>
       <c r="D21">
-        <v>40.85890852124498</v>
+        <v>28.8597617318824</v>
       </c>
       <c r="E21">
-        <v>574.9748541699713</v>
+        <v>352.3146442808287</v>
       </c>
       <c r="F21">
-        <v>39.90695565760756</v>
+        <v>24.82154472353285</v>
       </c>
       <c r="G21">
-        <v>9.721810079907428</v>
+        <v>23.87054832773353</v>
       </c>
       <c r="H21">
-        <v>139.2237717871972</v>
+        <v>185.2599478713113</v>
       </c>
       <c r="I21">
-        <v>26.66489347032332</v>
+        <v>30.45185703769753</v>
       </c>
       <c r="J21">
-        <v>261.1420797058092</v>
+        <v>140.9225974759584</v>
       </c>
       <c r="K21">
-        <v>225.9011490337062</v>
+        <v>92.14176127501246</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -4178,34 +4178,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>171.0574480031888</v>
+        <v>402.9046940436436</v>
       </c>
       <c r="C22">
-        <v>101.4163994928784</v>
+        <v>221.4035898202164</v>
       </c>
       <c r="D22">
-        <v>20.97256417775656</v>
+        <v>19.6757149175648</v>
       </c>
       <c r="E22">
-        <v>392.5093342680836</v>
+        <v>374.811842345291</v>
       </c>
       <c r="F22">
-        <v>115.0476316688536</v>
+        <v>31.13106631133149</v>
       </c>
       <c r="G22">
-        <v>14.51697558731201</v>
+        <v>18.35366748062132</v>
       </c>
       <c r="H22">
-        <v>294.7743472342574</v>
+        <v>255.875365093638</v>
       </c>
       <c r="I22">
-        <v>21.2743286179147</v>
+        <v>17.58878102812501</v>
       </c>
       <c r="J22">
-        <v>156.0396469354575</v>
+        <v>71.88421155644775</v>
       </c>
       <c r="K22">
-        <v>49.06752628221859</v>
+        <v>56.06058225317813</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -4213,34 +4213,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>72.33934483932983</v>
+        <v>80.05203518022594</v>
       </c>
       <c r="C23">
-        <v>143.5043257177795</v>
+        <v>96.54110750090797</v>
       </c>
       <c r="D23">
-        <v>15.2293203756754</v>
+        <v>15.08255126513858</v>
       </c>
       <c r="E23">
-        <v>399.3754742124893</v>
+        <v>263.3560302321945</v>
       </c>
       <c r="F23">
-        <v>67.77264387618126</v>
+        <v>50.57668371913506</v>
       </c>
       <c r="G23">
-        <v>29.20087658222752</v>
+        <v>18.83769991467716</v>
       </c>
       <c r="H23">
-        <v>212.9228382411735</v>
+        <v>296.6173214142343</v>
       </c>
       <c r="I23">
-        <v>52.581123360009</v>
+        <v>39.29636358340221</v>
       </c>
       <c r="J23">
-        <v>96.94011199024858</v>
+        <v>256.4664987598121</v>
       </c>
       <c r="K23">
-        <v>67.69963017103122</v>
+        <v>88.39040470838965</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -4248,34 +4248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>110.0809619202729</v>
+        <v>120.255536661343</v>
       </c>
       <c r="C24">
-        <v>196.3820525609108</v>
+        <v>120.7145166476586</v>
       </c>
       <c r="D24">
-        <v>20.08413461807092</v>
+        <v>13.49921774422063</v>
       </c>
       <c r="E24">
-        <v>551.0164587907011</v>
+        <v>537.2603454578233</v>
       </c>
       <c r="F24">
-        <v>130.5880120360079</v>
+        <v>32.33363260413175</v>
       </c>
       <c r="G24">
-        <v>20.16797563763518</v>
+        <v>42.54959231693432</v>
       </c>
       <c r="H24">
-        <v>142.7253847170604</v>
+        <v>49.6561752471274</v>
       </c>
       <c r="I24">
-        <v>33.97556240871926</v>
+        <v>36.33536372590872</v>
       </c>
       <c r="J24">
-        <v>248.3289314279452</v>
+        <v>118.3928902253948</v>
       </c>
       <c r="K24">
-        <v>97.82021085787024</v>
+        <v>39.69190889860688</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -4283,34 +4283,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>127.686389092095</v>
+        <v>180.028434045256</v>
       </c>
       <c r="C25">
-        <v>143.9492728766998</v>
+        <v>80.90667418431251</v>
       </c>
       <c r="D25">
-        <v>56.60264502687808</v>
+        <v>17.26002479755516</v>
       </c>
       <c r="E25">
-        <v>625.9358728300583</v>
+        <v>301.1614534283489</v>
       </c>
       <c r="F25">
-        <v>165.8497574764436</v>
+        <v>46.67474189159928</v>
       </c>
       <c r="G25">
-        <v>59.97660321727475</v>
+        <v>32.81481052124716</v>
       </c>
       <c r="H25">
-        <v>239.7723721214256</v>
+        <v>146.0453511232887</v>
       </c>
       <c r="I25">
-        <v>62.0644812095364</v>
+        <v>35.198855413544</v>
       </c>
       <c r="J25">
-        <v>130.315859571067</v>
+        <v>116.0103480859296</v>
       </c>
       <c r="K25">
-        <v>63.46320673289107</v>
+        <v>46.5657809147318</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -4318,34 +4318,34 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>218.2060011722979</v>
+        <v>112.2552719241752</v>
       </c>
       <c r="C26">
-        <v>143.9051781725098</v>
+        <v>86.06191638774247</v>
       </c>
       <c r="D26">
-        <v>13.8878614109872</v>
+        <v>16.45993536622249</v>
       </c>
       <c r="E26">
-        <v>356.3951033347733</v>
+        <v>217.2369762651472</v>
       </c>
       <c r="F26">
-        <v>59.15778425688349</v>
+        <v>44.06341392891498</v>
       </c>
       <c r="G26">
-        <v>22.66903098684554</v>
+        <v>16.69210555188015</v>
       </c>
       <c r="H26">
-        <v>186.154448544425</v>
+        <v>97.7248126446427</v>
       </c>
       <c r="I26">
-        <v>34.48652399801816</v>
+        <v>16.9508034579072</v>
       </c>
       <c r="J26">
-        <v>177.1202264084207</v>
+        <v>111.1226481675203</v>
       </c>
       <c r="K26">
-        <v>53.52367255730482</v>
+        <v>33.00164585028384</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -4353,34 +4353,34 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>212.8695810756712</v>
+        <v>161.219930068708</v>
       </c>
       <c r="C27">
-        <v>67.51488068985303</v>
+        <v>501.2324313772888</v>
       </c>
       <c r="D27">
-        <v>21.69672802379655</v>
+        <v>20.77790631626361</v>
       </c>
       <c r="E27">
-        <v>893.6382880311085</v>
+        <v>322.233840201026</v>
       </c>
       <c r="F27">
-        <v>75.53069445794988</v>
+        <v>25.9463293118138</v>
       </c>
       <c r="G27">
-        <v>64.13757779173643</v>
+        <v>38.64419103204453</v>
       </c>
       <c r="H27">
-        <v>139.4651127211863</v>
+        <v>86.28608982120188</v>
       </c>
       <c r="I27">
-        <v>44.87768083881305</v>
+        <v>28.7411933462662</v>
       </c>
       <c r="J27">
-        <v>342.6767987900963</v>
+        <v>71.00994321849427</v>
       </c>
       <c r="K27">
-        <v>40.17446877802282</v>
+        <v>41.69101893696004</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -4388,34 +4388,34 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>154.1200837169187</v>
+        <v>125.8662855991566</v>
       </c>
       <c r="C28">
-        <v>111.4300572391477</v>
+        <v>149.687324528191</v>
       </c>
       <c r="D28">
-        <v>25.05615235246545</v>
+        <v>10.28656904544951</v>
       </c>
       <c r="E28">
-        <v>302.3229173254307</v>
+        <v>303.6205451645994</v>
       </c>
       <c r="F28">
-        <v>48.45502934737486</v>
+        <v>82.63375265845778</v>
       </c>
       <c r="G28">
-        <v>58.45739564162159</v>
+        <v>27.48071741099691</v>
       </c>
       <c r="H28">
-        <v>108.909476878564</v>
+        <v>121.4463322020152</v>
       </c>
       <c r="I28">
-        <v>16.11045893318769</v>
+        <v>24.26354434825433</v>
       </c>
       <c r="J28">
-        <v>205.9183074916655</v>
+        <v>172.4062748254368</v>
       </c>
       <c r="K28">
-        <v>56.49985409256942</v>
+        <v>52.01120509029432</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -4423,34 +4423,34 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>227.5198748799277</v>
+        <v>113.3909676459858</v>
       </c>
       <c r="C29">
-        <v>78.07786442615777</v>
+        <v>90.79348203597733</v>
       </c>
       <c r="D29">
-        <v>15.2735603552157</v>
+        <v>19.75107628675834</v>
       </c>
       <c r="E29">
-        <v>661.4565238586272</v>
+        <v>355.9883095764532</v>
       </c>
       <c r="F29">
-        <v>111.700835294898</v>
+        <v>28.99459036189874</v>
       </c>
       <c r="G29">
-        <v>32.02688035801729</v>
+        <v>13.37096299978459</v>
       </c>
       <c r="H29">
-        <v>405.4227752136129</v>
+        <v>121.2388376001406</v>
       </c>
       <c r="I29">
-        <v>48.17163810063437</v>
+        <v>46.29705900124993</v>
       </c>
       <c r="J29">
-        <v>115.3113291592004</v>
+        <v>97.95555341621288</v>
       </c>
       <c r="K29">
-        <v>67.83906948617523</v>
+        <v>28.5084824474854</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -4458,34 +4458,34 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>215.2516681039659</v>
+        <v>93.93095175350487</v>
       </c>
       <c r="C30">
-        <v>146.566479218198</v>
+        <v>120.9309289802758</v>
       </c>
       <c r="D30">
-        <v>14.90142117112915</v>
+        <v>27.21061990013524</v>
       </c>
       <c r="E30">
-        <v>334.995563007683</v>
+        <v>406.9893492061633</v>
       </c>
       <c r="F30">
-        <v>55.51917775964677</v>
+        <v>61.52154573577895</v>
       </c>
       <c r="G30">
-        <v>30.88860909498522</v>
+        <v>20.80475795785159</v>
       </c>
       <c r="H30">
-        <v>121.0666344472854</v>
+        <v>115.5932176026765</v>
       </c>
       <c r="I30">
-        <v>37.12131070517873</v>
+        <v>16.87876539525768</v>
       </c>
       <c r="J30">
-        <v>143.5584846274637</v>
+        <v>115.1947759162104</v>
       </c>
       <c r="K30">
-        <v>127.6187085972879</v>
+        <v>44.11908252222387</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -4493,34 +4493,34 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>163.576278717986</v>
+        <v>111.1199751583465</v>
       </c>
       <c r="C31">
-        <v>149.3529687919147</v>
+        <v>116.1665657160014</v>
       </c>
       <c r="D31">
-        <v>29.94058203124476</v>
+        <v>15.14176278299451</v>
       </c>
       <c r="E31">
-        <v>558.1903959399511</v>
+        <v>164.8579050819872</v>
       </c>
       <c r="F31">
-        <v>41.20478518580961</v>
+        <v>120.9503249977175</v>
       </c>
       <c r="G31">
-        <v>17.82974261467809</v>
+        <v>45.59837394978415</v>
       </c>
       <c r="H31">
-        <v>180.896694713182</v>
+        <v>168.3470238996591</v>
       </c>
       <c r="I31">
-        <v>28.04557613022642</v>
+        <v>49.32853537619118</v>
       </c>
       <c r="J31">
-        <v>180.9204348508178</v>
+        <v>128.3509297713748</v>
       </c>
       <c r="K31">
-        <v>126.6849630475998</v>
+        <v>39.9275232437552</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -4528,34 +4528,34 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>148.289313741904</v>
+        <v>100.2634679527238</v>
       </c>
       <c r="C32">
-        <v>189.9252293809412</v>
+        <v>73.80814730196994</v>
       </c>
       <c r="D32">
-        <v>17.83104618895877</v>
+        <v>16.64256054932705</v>
       </c>
       <c r="E32">
-        <v>338.007918365757</v>
+        <v>257.6979586033877</v>
       </c>
       <c r="F32">
-        <v>96.73305572968992</v>
+        <v>32.66729819273521</v>
       </c>
       <c r="G32">
-        <v>25.18354985508996</v>
+        <v>22.17450779076161</v>
       </c>
       <c r="H32">
-        <v>124.8943327174765</v>
+        <v>121.3386430249815</v>
       </c>
       <c r="I32">
-        <v>27.50876523605187</v>
+        <v>16.88884789546579</v>
       </c>
       <c r="J32">
-        <v>226.7185810135677</v>
+        <v>132.1182767662324</v>
       </c>
       <c r="K32">
-        <v>72.34037439466775</v>
+        <v>110.4461407792706</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -4563,34 +4563,34 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>186.0253393877848</v>
+        <v>240.521150779917</v>
       </c>
       <c r="C33">
-        <v>159.6043277814328</v>
+        <v>87.56348233744555</v>
       </c>
       <c r="D33">
-        <v>21.41439720577947</v>
+        <v>20.19832491142398</v>
       </c>
       <c r="E33">
-        <v>339.7890665341282</v>
+        <v>479.9340570878684</v>
       </c>
       <c r="F33">
-        <v>37.21773872759036</v>
+        <v>74.40784731306114</v>
       </c>
       <c r="G33">
-        <v>43.91268673828855</v>
+        <v>28.16578728675835</v>
       </c>
       <c r="H33">
-        <v>313.69748625884</v>
+        <v>241.1675848305062</v>
       </c>
       <c r="I33">
-        <v>37.71074784145972</v>
+        <v>22.14000883134962</v>
       </c>
       <c r="J33">
-        <v>197.1703865496001</v>
+        <v>142.8151209440004</v>
       </c>
       <c r="K33">
-        <v>54.58695088453882</v>
+        <v>97.66409509239413</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -4598,34 +4598,34 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>185.582424321305</v>
+        <v>72.16515646879434</v>
       </c>
       <c r="C34">
-        <v>177.6737545305279</v>
+        <v>79.24087067204989</v>
       </c>
       <c r="D34">
-        <v>29.88193111306169</v>
+        <v>12.70693568794862</v>
       </c>
       <c r="E34">
-        <v>643.6714981548265</v>
+        <v>302.1425377296</v>
       </c>
       <c r="F34">
-        <v>37.41513856906803</v>
+        <v>38.5673952871491</v>
       </c>
       <c r="G34">
-        <v>20.91232692458299</v>
+        <v>22.25269454368034</v>
       </c>
       <c r="H34">
-        <v>249.0747033623346</v>
+        <v>130.5928022560925</v>
       </c>
       <c r="I34">
-        <v>54.79554139413219</v>
+        <v>70.36786065526292</v>
       </c>
       <c r="J34">
-        <v>337.045957079714</v>
+        <v>122.8913114988671</v>
       </c>
       <c r="K34">
-        <v>90.43020669274814</v>
+        <v>43.00965106616402</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -4633,34 +4633,34 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>331.9689749130756</v>
+        <v>180.1904029056191</v>
       </c>
       <c r="C35">
-        <v>144.5675875807404</v>
+        <v>136.7886342047809</v>
       </c>
       <c r="D35">
-        <v>13.91148638575783</v>
+        <v>11.31054904207502</v>
       </c>
       <c r="E35">
-        <v>378.48667922536</v>
+        <v>188.0691347747985</v>
       </c>
       <c r="F35">
-        <v>56.00601448543168</v>
+        <v>73.42060073138305</v>
       </c>
       <c r="G35">
-        <v>46.45921010209968</v>
+        <v>17.77627495648429</v>
       </c>
       <c r="H35">
-        <v>192.5492636340351</v>
+        <v>98.44465476238392</v>
       </c>
       <c r="I35">
-        <v>23.7614155292568</v>
+        <v>16.69326157317623</v>
       </c>
       <c r="J35">
-        <v>269.0983092006322</v>
+        <v>184.1625413150554</v>
       </c>
       <c r="K35">
-        <v>47.97796927092495</v>
+        <v>50.28979673180643</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -4668,34 +4668,34 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>66.09491182583298</v>
+        <v>143.8497491904683</v>
       </c>
       <c r="C36">
-        <v>88.42839487864197</v>
+        <v>72.08298601696315</v>
       </c>
       <c r="D36">
-        <v>35.85387135544325</v>
+        <v>20.15513003218203</v>
       </c>
       <c r="E36">
-        <v>250.1013914002856</v>
+        <v>186.0377011803785</v>
       </c>
       <c r="F36">
-        <v>93.36878461740453</v>
+        <v>77.252609993787</v>
       </c>
       <c r="G36">
-        <v>40.90932021184696</v>
+        <v>31.81687904765331</v>
       </c>
       <c r="H36">
-        <v>83.95638965200895</v>
+        <v>142.4653224693575</v>
       </c>
       <c r="I36">
-        <v>44.17412779208739</v>
+        <v>22.94489194945361</v>
       </c>
       <c r="J36">
-        <v>100.8825652844974</v>
+        <v>142.7205622846752</v>
       </c>
       <c r="K36">
-        <v>55.33077201398756</v>
+        <v>72.8910133404157</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -4703,34 +4703,34 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>179.5838009618214</v>
+        <v>141.775607110114</v>
       </c>
       <c r="C37">
-        <v>152.9808360879451</v>
+        <v>111.7436871908443</v>
       </c>
       <c r="D37">
-        <v>30.91720093638451</v>
+        <v>10.77750037428939</v>
       </c>
       <c r="E37">
-        <v>505.7653076663776</v>
+        <v>267.9631800065358</v>
       </c>
       <c r="F37">
-        <v>51.59443383195458</v>
+        <v>32.04477508296649</v>
       </c>
       <c r="G37">
-        <v>42.73068916560525</v>
+        <v>14.38042660752458</v>
       </c>
       <c r="H37">
-        <v>272.1523257447731</v>
+        <v>190.3317245806696</v>
       </c>
       <c r="I37">
-        <v>55.05130917868711</v>
+        <v>21.53443260589473</v>
       </c>
       <c r="J37">
-        <v>168.8852967484198</v>
+        <v>189.2955117613282</v>
       </c>
       <c r="K37">
-        <v>105.6651229001172</v>
+        <v>46.10433430776327</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -4738,34 +4738,34 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>281.8417491891301</v>
+        <v>94.82731796920808</v>
       </c>
       <c r="C38">
-        <v>107.733437983024</v>
+        <v>94.02421352133295</v>
       </c>
       <c r="D38">
-        <v>14.93128496099187</v>
+        <v>18.74878631324789</v>
       </c>
       <c r="E38">
-        <v>738.9407155756277</v>
+        <v>627.658125891605</v>
       </c>
       <c r="F38">
-        <v>87.1154922922438</v>
+        <v>59.64601592775914</v>
       </c>
       <c r="G38">
-        <v>26.04646868481477</v>
+        <v>20.68447932073583</v>
       </c>
       <c r="H38">
-        <v>167.2787432967463</v>
+        <v>169.4020520239104</v>
       </c>
       <c r="I38">
-        <v>54.8357453019841</v>
+        <v>17.74368544052171</v>
       </c>
       <c r="J38">
-        <v>218.5027390890032</v>
+        <v>263.4348769956264</v>
       </c>
       <c r="K38">
-        <v>117.4313274763416</v>
+        <v>51.66214234984547</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -4773,34 +4773,34 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>260.3445953500415</v>
+        <v>97.59960455145038</v>
       </c>
       <c r="C39">
-        <v>234.3206255688409</v>
+        <v>91.50085510343243</v>
       </c>
       <c r="D39">
-        <v>28.17943663601413</v>
+        <v>10.7541100829217</v>
       </c>
       <c r="E39">
-        <v>307.8712129090347</v>
+        <v>347.5088289929486</v>
       </c>
       <c r="F39">
-        <v>45.23993796448118</v>
+        <v>48.38803829898048</v>
       </c>
       <c r="G39">
-        <v>36.35732575584759</v>
+        <v>16.60389441798284</v>
       </c>
       <c r="H39">
-        <v>289.4259765160427</v>
+        <v>136.9871426858293</v>
       </c>
       <c r="I39">
-        <v>21.13579963110243</v>
+        <v>24.83574789668019</v>
       </c>
       <c r="J39">
-        <v>191.8747169397848</v>
+        <v>149.8056569837555</v>
       </c>
       <c r="K39">
-        <v>47.65179982575564</v>
+        <v>49.99612985164416</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -4808,34 +4808,34 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>91.22738734787464</v>
+        <v>110.7873481732076</v>
       </c>
       <c r="C40">
-        <v>180.3040113320391</v>
+        <v>79.21203677546693</v>
       </c>
       <c r="D40">
-        <v>42.29012710624696</v>
+        <v>21.60346375792238</v>
       </c>
       <c r="E40">
-        <v>429.3082011277879</v>
+        <v>258.6824146433446</v>
       </c>
       <c r="F40">
-        <v>34.82069999250292</v>
+        <v>73.3963016144171</v>
       </c>
       <c r="G40">
-        <v>15.06534255932192</v>
+        <v>15.47085403700762</v>
       </c>
       <c r="H40">
-        <v>169.1203244125218</v>
+        <v>73.06720872560261</v>
       </c>
       <c r="I40">
-        <v>115.4069004542286</v>
+        <v>23.45668102867152</v>
       </c>
       <c r="J40">
-        <v>132.3515142311041</v>
+        <v>115.9226212712056</v>
       </c>
       <c r="K40">
-        <v>64.94490875721232</v>
+        <v>28.41383543082789</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -4843,34 +4843,34 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>191.9942185913262</v>
+        <v>89.65250111459062</v>
       </c>
       <c r="C41">
-        <v>227.6378140852544</v>
+        <v>67.2866222154165</v>
       </c>
       <c r="D41">
-        <v>23.10121767906189</v>
+        <v>9.905788879816127</v>
       </c>
       <c r="E41">
-        <v>713.1089678913852</v>
+        <v>245.6660604690357</v>
       </c>
       <c r="F41">
-        <v>76.80898788235629</v>
+        <v>59.50473583261039</v>
       </c>
       <c r="G41">
-        <v>15.43925681948916</v>
+        <v>26.24554439814326</v>
       </c>
       <c r="H41">
-        <v>193.7326870081081</v>
+        <v>110.7949633367585</v>
       </c>
       <c r="I41">
-        <v>41.53594396443678</v>
+        <v>36.45888912133411</v>
       </c>
       <c r="J41">
-        <v>143.8008209715938</v>
+        <v>80.72538125308967</v>
       </c>
       <c r="K41">
-        <v>69.37389173144622</v>
+        <v>27.19998464736064</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -4878,34 +4878,34 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>113.4321321871203</v>
+        <v>113.1407142028502</v>
       </c>
       <c r="C42">
-        <v>106.9296623842861</v>
+        <v>173.7462168988139</v>
       </c>
       <c r="D42">
-        <v>16.62278760316061</v>
+        <v>15.99538477370314</v>
       </c>
       <c r="E42">
-        <v>708.0996506700388</v>
+        <v>350.9056510139955</v>
       </c>
       <c r="F42">
-        <v>118.4263765355987</v>
+        <v>97.31004077703284</v>
       </c>
       <c r="G42">
-        <v>25.82138344232848</v>
+        <v>13.62982078796607</v>
       </c>
       <c r="H42">
-        <v>96.14393846178018</v>
+        <v>79.5985350964006</v>
       </c>
       <c r="I42">
-        <v>25.53869542523471</v>
+        <v>23.07517466742397</v>
       </c>
       <c r="J42">
-        <v>221.6941216132543</v>
+        <v>207.3394448166576</v>
       </c>
       <c r="K42">
-        <v>76.27105912601149</v>
+        <v>37.37601261267142</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -4913,34 +4913,34 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>130.0930125264672</v>
+        <v>268.7544138655451</v>
       </c>
       <c r="C43">
-        <v>163.817189650603</v>
+        <v>63.13573618018386</v>
       </c>
       <c r="D43">
-        <v>22.21039215261905</v>
+        <v>9.842179607068177</v>
       </c>
       <c r="E43">
-        <v>476.7600066253412</v>
+        <v>571.3415727637563</v>
       </c>
       <c r="F43">
-        <v>51.88056262661031</v>
+        <v>37.88039514662905</v>
       </c>
       <c r="G43">
-        <v>24.50002005576364</v>
+        <v>14.83346713446059</v>
       </c>
       <c r="H43">
-        <v>76.76925406616316</v>
+        <v>102.8603194828457</v>
       </c>
       <c r="I43">
-        <v>23.1864906362629</v>
+        <v>18.6216227388064</v>
       </c>
       <c r="J43">
-        <v>99.96543310534727</v>
+        <v>147.9011892498489</v>
       </c>
       <c r="K43">
-        <v>75.03027408579901</v>
+        <v>72.73594243101752</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -4948,34 +4948,34 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>184.1687546162881</v>
+        <v>161.4258920891402</v>
       </c>
       <c r="C44">
-        <v>261.4680886824917</v>
+        <v>125.6854176095687</v>
       </c>
       <c r="D44">
-        <v>18.74126829761073</v>
+        <v>18.08965114382544</v>
       </c>
       <c r="E44">
-        <v>443.8294590294284</v>
+        <v>444.3212806193427</v>
       </c>
       <c r="F44">
-        <v>42.78066840476192</v>
+        <v>40.53738154603707</v>
       </c>
       <c r="G44">
-        <v>19.40505720182578</v>
+        <v>17.43628027529799</v>
       </c>
       <c r="H44">
-        <v>144.6437306445678</v>
+        <v>145.2537543126804</v>
       </c>
       <c r="I44">
-        <v>13.40001817025655</v>
+        <v>46.66016183246121</v>
       </c>
       <c r="J44">
-        <v>224.5244327344286</v>
+        <v>147.5905577037776</v>
       </c>
       <c r="K44">
-        <v>63.23829020140715</v>
+        <v>55.1839671683858</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -4983,34 +4983,34 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>84.11413606125082</v>
+        <v>152.69561101081</v>
       </c>
       <c r="C45">
-        <v>132.6387670428192</v>
+        <v>115.9282411092626</v>
       </c>
       <c r="D45">
-        <v>25.2609692927201</v>
+        <v>23.89412334311418</v>
       </c>
       <c r="E45">
-        <v>415.8856286511896</v>
+        <v>490.1437858292295</v>
       </c>
       <c r="F45">
-        <v>78.64149733120024</v>
+        <v>25.52228517951086</v>
       </c>
       <c r="G45">
-        <v>57.41097150635712</v>
+        <v>24.43224107003611</v>
       </c>
       <c r="H45">
-        <v>390.9805564025445</v>
+        <v>182.7424316560816</v>
       </c>
       <c r="I45">
-        <v>24.52503633255382</v>
+        <v>42.01919779804803</v>
       </c>
       <c r="J45">
-        <v>174.9188700053904</v>
+        <v>155.0777478163409</v>
       </c>
       <c r="K45">
-        <v>41.0872342423012</v>
+        <v>33.49353515721548</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -5018,34 +5018,34 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>244.4169459411516</v>
+        <v>123.9936505089837</v>
       </c>
       <c r="C46">
-        <v>260.1133452275956</v>
+        <v>107.197260894954</v>
       </c>
       <c r="D46">
-        <v>33.58794899864547</v>
+        <v>19.61640336470693</v>
       </c>
       <c r="E46">
-        <v>279.43541193956</v>
+        <v>436.9468105025774</v>
       </c>
       <c r="F46">
-        <v>91.57283844920744</v>
+        <v>41.5465800835244</v>
       </c>
       <c r="G46">
-        <v>29.31054201428643</v>
+        <v>18.2497016445252</v>
       </c>
       <c r="H46">
-        <v>71.605148120644</v>
+        <v>66.28000480590752</v>
       </c>
       <c r="I46">
-        <v>29.75786593742432</v>
+        <v>27.20427632158185</v>
       </c>
       <c r="J46">
-        <v>162.1537505630496</v>
+        <v>70.81027844795283</v>
       </c>
       <c r="K46">
-        <v>79.33110935593841</v>
+        <v>31.4298911677089</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -5053,34 +5053,34 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>273.9316869099132</v>
+        <v>186.2974747350704</v>
       </c>
       <c r="C47">
-        <v>317.2879143353728</v>
+        <v>152.9573563777354</v>
       </c>
       <c r="D47">
-        <v>23.42489513564636</v>
+        <v>22.75807738410752</v>
       </c>
       <c r="E47">
-        <v>505.8476471937799</v>
+        <v>415.9733820773263</v>
       </c>
       <c r="F47">
-        <v>63.33057783909626</v>
+        <v>24.94720981798394</v>
       </c>
       <c r="G47">
-        <v>33.53645805245283</v>
+        <v>20.47491751273249</v>
       </c>
       <c r="H47">
-        <v>147.4237930456388</v>
+        <v>197.7976902232912</v>
       </c>
       <c r="I47">
-        <v>23.59671442049939</v>
+        <v>34.74394266717644</v>
       </c>
       <c r="J47">
-        <v>164.5463737916864</v>
+        <v>152.7450395657827</v>
       </c>
       <c r="K47">
-        <v>79.96925133522743</v>
+        <v>50.34043574794983</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -5088,34 +5088,34 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>191.3004986466015</v>
+        <v>185.0489922148757</v>
       </c>
       <c r="C48">
-        <v>345.6902169577203</v>
+        <v>87.0672539604585</v>
       </c>
       <c r="D48">
-        <v>12.87844739797386</v>
+        <v>17.72749350887961</v>
       </c>
       <c r="E48">
-        <v>329.8018156014289</v>
+        <v>464.379952313873</v>
       </c>
       <c r="F48">
-        <v>54.04578534700812</v>
+        <v>48.70945256139443</v>
       </c>
       <c r="G48">
-        <v>55.04664710115426</v>
+        <v>43.95254219573294</v>
       </c>
       <c r="H48">
-        <v>108.4304172639435</v>
+        <v>150.4948364686906</v>
       </c>
       <c r="I48">
-        <v>44.09472994275635</v>
+        <v>20.85207906203092</v>
       </c>
       <c r="J48">
-        <v>96.4880215646331</v>
+        <v>124.2108304059829</v>
       </c>
       <c r="K48">
-        <v>82.1926107821451</v>
+        <v>43.46600336263633</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -5123,34 +5123,34 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>151.2830086672717</v>
+        <v>175.6031787710321</v>
       </c>
       <c r="C49">
-        <v>165.316802779164</v>
+        <v>111.1137809057429</v>
       </c>
       <c r="D49">
-        <v>22.59491401832783</v>
+        <v>11.49103343662913</v>
       </c>
       <c r="E49">
-        <v>684.1411553755934</v>
+        <v>421.0724401525721</v>
       </c>
       <c r="F49">
-        <v>55.926224301481</v>
+        <v>27.72239478704588</v>
       </c>
       <c r="G49">
-        <v>27.49902992188955</v>
+        <v>31.76906915272296</v>
       </c>
       <c r="H49">
-        <v>128.7640741650526</v>
+        <v>65.24077956002439</v>
       </c>
       <c r="I49">
-        <v>35.72364534257459</v>
+        <v>19.40722529139384</v>
       </c>
       <c r="J49">
-        <v>261.7760215469807</v>
+        <v>117.2809299333152</v>
       </c>
       <c r="K49">
-        <v>43.09335950354353</v>
+        <v>35.46920179044022</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -5158,34 +5158,34 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>98.23672664966625</v>
+        <v>90.6563330009356</v>
       </c>
       <c r="C50">
-        <v>68.00534478696149</v>
+        <v>107.5637637990098</v>
       </c>
       <c r="D50">
-        <v>28.42501751028063</v>
+        <v>53.43489295466777</v>
       </c>
       <c r="E50">
-        <v>448.1353577214881</v>
+        <v>544.3471059644711</v>
       </c>
       <c r="F50">
-        <v>58.3061436959463</v>
+        <v>24.33047029023582</v>
       </c>
       <c r="G50">
-        <v>38.58116581739631</v>
+        <v>22.49007407727249</v>
       </c>
       <c r="H50">
-        <v>66.92092482614963</v>
+        <v>67.13416882879027</v>
       </c>
       <c r="I50">
-        <v>49.15937578355155</v>
+        <v>28.93593754595061</v>
       </c>
       <c r="J50">
-        <v>230.7352300830816</v>
+        <v>150.7854730619794</v>
       </c>
       <c r="K50">
-        <v>28.66237167022497</v>
+        <v>21.90184567846172</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -5193,34 +5193,34 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>81.89417408194694</v>
+        <v>224.1288840796212</v>
       </c>
       <c r="C51">
-        <v>100.7721454747443</v>
+        <v>113.1423077672517</v>
       </c>
       <c r="D51">
-        <v>39.7843404947075</v>
+        <v>11.45117726889194</v>
       </c>
       <c r="E51">
-        <v>300.1055745371679</v>
+        <v>425.1126124374853</v>
       </c>
       <c r="F51">
-        <v>82.25707803154248</v>
+        <v>48.45476025096966</v>
       </c>
       <c r="G51">
-        <v>27.12070287722259</v>
+        <v>23.3867058342151</v>
       </c>
       <c r="H51">
-        <v>310.9682253019943</v>
+        <v>120.2412406801689</v>
       </c>
       <c r="I51">
-        <v>20.65829258922854</v>
+        <v>31.41893409924945</v>
       </c>
       <c r="J51">
-        <v>83.62774807801253</v>
+        <v>127.0083830496073</v>
       </c>
       <c r="K51">
-        <v>37.20522953284711</v>
+        <v>75.73233630371284</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -5228,34 +5228,34 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>152.9000984261474</v>
+        <v>167.0169332760601</v>
       </c>
       <c r="C52">
-        <v>233.3755342646153</v>
+        <v>183.1936063877988</v>
       </c>
       <c r="D52">
-        <v>20.29405777244693</v>
+        <v>8.914630820785758</v>
       </c>
       <c r="E52">
-        <v>684.3388853153326</v>
+        <v>405.0652667761764</v>
       </c>
       <c r="F52">
-        <v>107.6769246616837</v>
+        <v>21.05289157550503</v>
       </c>
       <c r="G52">
-        <v>23.03942275479217</v>
+        <v>27.3044795735223</v>
       </c>
       <c r="H52">
-        <v>142.6377252097646</v>
+        <v>239.8173099153473</v>
       </c>
       <c r="I52">
-        <v>37.37465421073294</v>
+        <v>35.08276486695571</v>
       </c>
       <c r="J52">
-        <v>402.181060090271</v>
+        <v>136.448125152621</v>
       </c>
       <c r="K52">
-        <v>59.9403862226898</v>
+        <v>83.26587591136906</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -5263,34 +5263,34 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>188.0118759739993</v>
+        <v>118.738270094988</v>
       </c>
       <c r="C53">
-        <v>189.8233655391685</v>
+        <v>102.7189834423669</v>
       </c>
       <c r="D53">
-        <v>17.81497224399564</v>
+        <v>10.7404208191068</v>
       </c>
       <c r="E53">
-        <v>450.3279212755443</v>
+        <v>268.1358239869205</v>
       </c>
       <c r="F53">
-        <v>31.29387154489188</v>
+        <v>54.15552399991918</v>
       </c>
       <c r="G53">
-        <v>24.94510028470431</v>
+        <v>41.98187523362053</v>
       </c>
       <c r="H53">
-        <v>221.6561681105692</v>
+        <v>121.9555274697088</v>
       </c>
       <c r="I53">
-        <v>77.10547791126007</v>
+        <v>29.10961923182643</v>
       </c>
       <c r="J53">
-        <v>130.5245765282955</v>
+        <v>66.42812605509275</v>
       </c>
       <c r="K53">
-        <v>108.4763493249446</v>
+        <v>84.53311297839601</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -5298,34 +5298,34 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>188.8455107035758</v>
+        <v>127.6517174300183</v>
       </c>
       <c r="C54">
-        <v>108.3326451833617</v>
+        <v>311.7745171438182</v>
       </c>
       <c r="D54">
-        <v>22.81123471027044</v>
+        <v>13.19651471382781</v>
       </c>
       <c r="E54">
-        <v>588.2999698632815</v>
+        <v>484.201753198758</v>
       </c>
       <c r="F54">
-        <v>33.38535289036008</v>
+        <v>61.60234975436394</v>
       </c>
       <c r="G54">
-        <v>41.91712260290915</v>
+        <v>12.06973090401066</v>
       </c>
       <c r="H54">
-        <v>98.92570576833756</v>
+        <v>138.2842587728394</v>
       </c>
       <c r="I54">
-        <v>16.94086239193557</v>
+        <v>26.64920850956615</v>
       </c>
       <c r="J54">
-        <v>246.9340856348471</v>
+        <v>185.8924156362773</v>
       </c>
       <c r="K54">
-        <v>69.52067973565325</v>
+        <v>57.01759031027704</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -5333,34 +5333,34 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>138.3769006801263</v>
+        <v>193.9365653495907</v>
       </c>
       <c r="C55">
-        <v>265.7059986805558</v>
+        <v>103.6545083495457</v>
       </c>
       <c r="D55">
-        <v>14.46210557958967</v>
+        <v>13.10961507354304</v>
       </c>
       <c r="E55">
-        <v>574.9832756410721</v>
+        <v>250.0850248016376</v>
       </c>
       <c r="F55">
-        <v>79.98005968395152</v>
+        <v>87.81159150515822</v>
       </c>
       <c r="G55">
-        <v>28.156847922364</v>
+        <v>21.36805830039281</v>
       </c>
       <c r="H55">
-        <v>161.0944455926932</v>
+        <v>79.05548318404843</v>
       </c>
       <c r="I55">
-        <v>67.95709109600621</v>
+        <v>58.503371437717</v>
       </c>
       <c r="J55">
-        <v>124.7619634241661</v>
+        <v>174.1030584108935</v>
       </c>
       <c r="K55">
-        <v>120.2242073724579</v>
+        <v>32.91730063944269</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -5368,34 +5368,34 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>348.5183170949389</v>
+        <v>95.92151442027149</v>
       </c>
       <c r="C56">
-        <v>164.1415500230486</v>
+        <v>150.006202399589</v>
       </c>
       <c r="D56">
-        <v>22.72738218140803</v>
+        <v>25.39719689173313</v>
       </c>
       <c r="E56">
-        <v>435.9897333113105</v>
+        <v>450.2948994891675</v>
       </c>
       <c r="F56">
-        <v>87.12120984103034</v>
+        <v>39.55855085140345</v>
       </c>
       <c r="G56">
-        <v>23.22486607435712</v>
+        <v>19.90690335184841</v>
       </c>
       <c r="H56">
-        <v>202.3001133462433</v>
+        <v>183.3192633638132</v>
       </c>
       <c r="I56">
-        <v>38.60602463804012</v>
+        <v>14.79492332887127</v>
       </c>
       <c r="J56">
-        <v>242.0027021170569</v>
+        <v>154.1366300023064</v>
       </c>
       <c r="K56">
-        <v>48.54260015238136</v>
+        <v>58.70966559212878</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -5403,34 +5403,34 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>296.3544186450195</v>
+        <v>151.9902776280915</v>
       </c>
       <c r="C57">
-        <v>205.1448291075904</v>
+        <v>115.9217773281212</v>
       </c>
       <c r="D57">
-        <v>18.68198656135624</v>
+        <v>37.10663243751524</v>
       </c>
       <c r="E57">
-        <v>223.5022153159646</v>
+        <v>324.4903571746087</v>
       </c>
       <c r="F57">
-        <v>118.4948129404963</v>
+        <v>48.75185156563187</v>
       </c>
       <c r="G57">
-        <v>33.28321625334887</v>
+        <v>24.85884563449524</v>
       </c>
       <c r="H57">
-        <v>139.7898298573209</v>
+        <v>177.1881131975803</v>
       </c>
       <c r="I57">
-        <v>31.41297227892197</v>
+        <v>34.60981829676592</v>
       </c>
       <c r="J57">
-        <v>263.9433162173553</v>
+        <v>143.6311756970347</v>
       </c>
       <c r="K57">
-        <v>99.12923261317053</v>
+        <v>25.42577163055787</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -5438,34 +5438,34 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>125.2452378971043</v>
+        <v>97.98919776589871</v>
       </c>
       <c r="C58">
-        <v>85.89132388288628</v>
+        <v>67.06682732734532</v>
       </c>
       <c r="D58">
-        <v>20.07996589107633</v>
+        <v>15.94263492776134</v>
       </c>
       <c r="E58">
-        <v>345.9127112394021</v>
+        <v>307.557740511245</v>
       </c>
       <c r="F58">
-        <v>70.01058215618919</v>
+        <v>60.22866595767958</v>
       </c>
       <c r="G58">
-        <v>38.56056826222871</v>
+        <v>20.30291821401112</v>
       </c>
       <c r="H58">
-        <v>280.3559080878803</v>
+        <v>95.80491632837506</v>
       </c>
       <c r="I58">
-        <v>95.61018671660435</v>
+        <v>17.90805971914031</v>
       </c>
       <c r="J58">
-        <v>111.4746350072592</v>
+        <v>174.6776554470068</v>
       </c>
       <c r="K58">
-        <v>131.9442154901041</v>
+        <v>61.6437677974474</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -5473,34 +5473,34 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>425.607543839953</v>
+        <v>153.0832049659982</v>
       </c>
       <c r="C59">
-        <v>242.3807170498368</v>
+        <v>163.11901594711</v>
       </c>
       <c r="D59">
-        <v>25.99433282573603</v>
+        <v>38.4299523482149</v>
       </c>
       <c r="E59">
-        <v>536.5050676593543</v>
+        <v>533.7084135799595</v>
       </c>
       <c r="F59">
-        <v>62.30859701062995</v>
+        <v>56.28266079405807</v>
       </c>
       <c r="G59">
-        <v>57.77612586020994</v>
+        <v>31.47019841113226</v>
       </c>
       <c r="H59">
-        <v>110.3928631399722</v>
+        <v>124.504475034547</v>
       </c>
       <c r="I59">
-        <v>21.49030705756975</v>
+        <v>25.18955677027794</v>
       </c>
       <c r="J59">
-        <v>498.0285439113488</v>
+        <v>392.2260038932319</v>
       </c>
       <c r="K59">
-        <v>26.68100603308725</v>
+        <v>39.38101463555089</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -5508,34 +5508,34 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>86.66065069786423</v>
+        <v>141.6630734652845</v>
       </c>
       <c r="C60">
-        <v>124.1842723154042</v>
+        <v>128.5193218938555</v>
       </c>
       <c r="D60">
-        <v>45.5012654547828</v>
+        <v>8.492348128807572</v>
       </c>
       <c r="E60">
-        <v>326.5096236361253</v>
+        <v>281.0278111031363</v>
       </c>
       <c r="F60">
-        <v>67.81662112063105</v>
+        <v>74.05004034961004</v>
       </c>
       <c r="G60">
-        <v>40.58689987550024</v>
+        <v>40.34551455831537</v>
       </c>
       <c r="H60">
-        <v>180.2278004111693</v>
+        <v>130.099963442507</v>
       </c>
       <c r="I60">
-        <v>28.97826143825382</v>
+        <v>18.11674779837412</v>
       </c>
       <c r="J60">
-        <v>136.5026211591892</v>
+        <v>214.7995929879445</v>
       </c>
       <c r="K60">
-        <v>58.87645671983464</v>
+        <v>43.04796392942595</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -5543,34 +5543,34 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>157.468861824754</v>
+        <v>196.9429829920211</v>
       </c>
       <c r="C61">
-        <v>182.3746432480133</v>
+        <v>77.31997360170531</v>
       </c>
       <c r="D61">
-        <v>17.4975313712872</v>
+        <v>25.93114836989421</v>
       </c>
       <c r="E61">
-        <v>404.497273396525</v>
+        <v>310.3228126494841</v>
       </c>
       <c r="F61">
-        <v>75.4518196079249</v>
+        <v>57.14294471078445</v>
       </c>
       <c r="G61">
-        <v>29.95792047647409</v>
+        <v>21.67995359693126</v>
       </c>
       <c r="H61">
-        <v>362.8726313031329</v>
+        <v>208.7835233831323</v>
       </c>
       <c r="I61">
-        <v>89.32624479645621</v>
+        <v>34.54269619333314</v>
       </c>
       <c r="J61">
-        <v>137.9205905064283</v>
+        <v>141.6587482157253</v>
       </c>
       <c r="K61">
-        <v>87.91691887499637</v>
+        <v>64.17296380148832</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -5578,34 +5578,34 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>296.5525684485756</v>
+        <v>99.06721762118632</v>
       </c>
       <c r="C62">
-        <v>125.4664881597491</v>
+        <v>131.9457795046943</v>
       </c>
       <c r="D62">
-        <v>30.6263079727181</v>
+        <v>21.36652021665499</v>
       </c>
       <c r="E62">
-        <v>424.8077136119394</v>
+        <v>297.1686905295433</v>
       </c>
       <c r="F62">
-        <v>86.36618478741806</v>
+        <v>96.06132292490192</v>
       </c>
       <c r="G62">
-        <v>61.21012672517125</v>
+        <v>17.71456400439585</v>
       </c>
       <c r="H62">
-        <v>85.78053974284664</v>
+        <v>93.40033936094542</v>
       </c>
       <c r="I62">
-        <v>42.72926945437897</v>
+        <v>22.11980705893313</v>
       </c>
       <c r="J62">
-        <v>216.0024998053153</v>
+        <v>85.66720601876729</v>
       </c>
       <c r="K62">
-        <v>60.58453483722879</v>
+        <v>40.62716158617842</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -5613,34 +5613,34 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>50.31150507713645</v>
+        <v>253.8314183686569</v>
       </c>
       <c r="C63">
-        <v>149.7741929405237</v>
+        <v>69.50208636842386</v>
       </c>
       <c r="D63">
-        <v>22.06290780815808</v>
+        <v>15.44923884781647</v>
       </c>
       <c r="E63">
-        <v>491.087948131038</v>
+        <v>395.0199072668368</v>
       </c>
       <c r="F63">
-        <v>125.4589922475043</v>
+        <v>85.20844548675599</v>
       </c>
       <c r="G63">
-        <v>52.98752419399438</v>
+        <v>20.64301519814036</v>
       </c>
       <c r="H63">
-        <v>184.7069327424219</v>
+        <v>59.61295885682473</v>
       </c>
       <c r="I63">
-        <v>85.1014026180784</v>
+        <v>25.96406094070366</v>
       </c>
       <c r="J63">
-        <v>202.8146745911964</v>
+        <v>207.8713899357261</v>
       </c>
       <c r="K63">
-        <v>73.49811139298666</v>
+        <v>33.15092537477319</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -5648,34 +5648,34 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>247.3849218124468</v>
+        <v>143.0950106506556</v>
       </c>
       <c r="C64">
-        <v>254.9439842837227</v>
+        <v>166.914469970235</v>
       </c>
       <c r="D64">
-        <v>11.14480599884669</v>
+        <v>19.13908946990036</v>
       </c>
       <c r="E64">
-        <v>810.2844986122572</v>
+        <v>275.2661223263128</v>
       </c>
       <c r="F64">
-        <v>41.09805947399217</v>
+        <v>41.95322741299353</v>
       </c>
       <c r="G64">
-        <v>43.76358385687227</v>
+        <v>19.44528628867772</v>
       </c>
       <c r="H64">
-        <v>478.1155810571013</v>
+        <v>103.1357334266334</v>
       </c>
       <c r="I64">
-        <v>36.31958324300654</v>
+        <v>40.94201217139523</v>
       </c>
       <c r="J64">
-        <v>202.6324189162884</v>
+        <v>108.4132774384996</v>
       </c>
       <c r="K64">
-        <v>31.30035466044001</v>
+        <v>45.84819080475868</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -5683,34 +5683,34 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>111.8698465391541</v>
+        <v>146.0727612141152</v>
       </c>
       <c r="C65">
-        <v>147.7098762205354</v>
+        <v>119.0853658639146</v>
       </c>
       <c r="D65">
-        <v>10.22904117886937</v>
+        <v>26.18122547077865</v>
       </c>
       <c r="E65">
-        <v>338.2496944918132</v>
+        <v>445.96360436794</v>
       </c>
       <c r="F65">
-        <v>114.8802009914878</v>
+        <v>43.26510726538288</v>
       </c>
       <c r="G65">
-        <v>66.83270543727457</v>
+        <v>11.43549397130175</v>
       </c>
       <c r="H65">
-        <v>114.7963156700789</v>
+        <v>161.4060490345397</v>
       </c>
       <c r="I65">
-        <v>43.26610604698786</v>
+        <v>44.6792749500822</v>
       </c>
       <c r="J65">
-        <v>543.6314935194225</v>
+        <v>256.1171947176995</v>
       </c>
       <c r="K65">
-        <v>47.2673812932503</v>
+        <v>48.75207944202177</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -5718,34 +5718,34 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>228.0828457230494</v>
+        <v>175.4894588711862</v>
       </c>
       <c r="C66">
-        <v>124.5746662493827</v>
+        <v>80.67092092145792</v>
       </c>
       <c r="D66">
-        <v>13.89596709746976</v>
+        <v>12.67173697934492</v>
       </c>
       <c r="E66">
-        <v>435.2846316878538</v>
+        <v>242.9879604684412</v>
       </c>
       <c r="F66">
-        <v>53.0976213967344</v>
+        <v>42.60473260768027</v>
       </c>
       <c r="G66">
-        <v>33.45544341600385</v>
+        <v>27.40831138144027</v>
       </c>
       <c r="H66">
-        <v>195.4032277923474</v>
+        <v>66.51955516108269</v>
       </c>
       <c r="I66">
-        <v>22.76137584025563</v>
+        <v>28.35958748979458</v>
       </c>
       <c r="J66">
-        <v>169.0009264695225</v>
+        <v>110.4743192508356</v>
       </c>
       <c r="K66">
-        <v>59.31824063096594</v>
+        <v>37.32965391166458</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -5753,34 +5753,34 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>130.2827721473427</v>
+        <v>225.4431287913578</v>
       </c>
       <c r="C67">
-        <v>227.9483188789878</v>
+        <v>205.7099014617638</v>
       </c>
       <c r="D67">
-        <v>30.98709832389004</v>
+        <v>9.267254500706134</v>
       </c>
       <c r="E67">
-        <v>833.283164209141</v>
+        <v>346.7820530692568</v>
       </c>
       <c r="F67">
-        <v>80.80698672252991</v>
+        <v>51.12043195157315</v>
       </c>
       <c r="G67">
-        <v>51.14721397490803</v>
+        <v>28.32175307020492</v>
       </c>
       <c r="H67">
-        <v>284.8227041005655</v>
+        <v>206.5436573191728</v>
       </c>
       <c r="I67">
-        <v>64.53387243058063</v>
+        <v>27.50068316887578</v>
       </c>
       <c r="J67">
-        <v>319.2686985536504</v>
+        <v>62.24374750863097</v>
       </c>
       <c r="K67">
-        <v>120.9100987190897</v>
+        <v>58.85073865347485</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -5788,34 +5788,34 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>211.340972705503</v>
+        <v>160.4180820391418</v>
       </c>
       <c r="C68">
-        <v>112.3441749313265</v>
+        <v>89.36342095165369</v>
       </c>
       <c r="D68">
-        <v>24.13959091209802</v>
+        <v>14.9191201280809</v>
       </c>
       <c r="E68">
-        <v>475.2714507076901</v>
+        <v>376.5668015583602</v>
       </c>
       <c r="F68">
-        <v>43.5323331711828</v>
+        <v>36.59829576229203</v>
       </c>
       <c r="G68">
-        <v>13.55647817833944</v>
+        <v>25.54938005286534</v>
       </c>
       <c r="H68">
-        <v>201.5206583951651</v>
+        <v>69.42311663649824</v>
       </c>
       <c r="I68">
-        <v>54.31373149813474</v>
+        <v>17.86978173617803</v>
       </c>
       <c r="J68">
-        <v>219.5033549147122</v>
+        <v>173.1414189178202</v>
       </c>
       <c r="K68">
-        <v>75.10804980323145</v>
+        <v>42.29266493264862</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -5823,34 +5823,34 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>179.5222319860545</v>
+        <v>163.9489828962235</v>
       </c>
       <c r="C69">
-        <v>137.2228903659796</v>
+        <v>70.11316383254712</v>
       </c>
       <c r="D69">
-        <v>6.936034035459279</v>
+        <v>6.924809010910619</v>
       </c>
       <c r="E69">
-        <v>513.4830141812164</v>
+        <v>433.4158758008729</v>
       </c>
       <c r="F69">
-        <v>31.62018584119469</v>
+        <v>30.30680760447856</v>
       </c>
       <c r="G69">
-        <v>14.96663186325823</v>
+        <v>12.79437415962697</v>
       </c>
       <c r="H69">
-        <v>141.7270579170312</v>
+        <v>213.6510190896113</v>
       </c>
       <c r="I69">
-        <v>80.15507283824066</v>
+        <v>46.17945738846763</v>
       </c>
       <c r="J69">
-        <v>180.8893802175378</v>
+        <v>180.1009317022593</v>
       </c>
       <c r="K69">
-        <v>89.99863315534995</v>
+        <v>51.09819080204751</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -5858,34 +5858,34 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>56.53765832905984</v>
+        <v>156.5929170644559</v>
       </c>
       <c r="C70">
-        <v>100.2234705450692</v>
+        <v>150.3217392405558</v>
       </c>
       <c r="D70">
-        <v>24.69609165057344</v>
+        <v>9.173538870502593</v>
       </c>
       <c r="E70">
-        <v>711.3019576158332</v>
+        <v>312.927433983764</v>
       </c>
       <c r="F70">
-        <v>171.0253084972435</v>
+        <v>28.79875113993151</v>
       </c>
       <c r="G70">
-        <v>89.22945250668356</v>
+        <v>24.06977089252486</v>
       </c>
       <c r="H70">
-        <v>229.7129335977403</v>
+        <v>82.79639113809046</v>
       </c>
       <c r="I70">
-        <v>25.99888956899671</v>
+        <v>22.42880023491408</v>
       </c>
       <c r="J70">
-        <v>201.7114456125402</v>
+        <v>115.1501233050648</v>
       </c>
       <c r="K70">
-        <v>119.978329817184</v>
+        <v>32.58584172390852</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -5893,34 +5893,34 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>156.4375408451498</v>
+        <v>92.68652973869293</v>
       </c>
       <c r="C71">
-        <v>172.1651893486811</v>
+        <v>86.921396516427</v>
       </c>
       <c r="D71">
-        <v>18.34989467994896</v>
+        <v>7.870401813519377</v>
       </c>
       <c r="E71">
-        <v>985.7750948750506</v>
+        <v>265.8646861968321</v>
       </c>
       <c r="F71">
-        <v>54.20702408400939</v>
+        <v>68.38734800552032</v>
       </c>
       <c r="G71">
-        <v>30.94204057774058</v>
+        <v>40.29405323857429</v>
       </c>
       <c r="H71">
-        <v>161.7117633661735</v>
+        <v>123.7690040454912</v>
       </c>
       <c r="I71">
-        <v>54.7092719929385</v>
+        <v>16.35131335254875</v>
       </c>
       <c r="J71">
-        <v>253.2191971576835</v>
+        <v>155.1405142485181</v>
       </c>
       <c r="K71">
-        <v>20.04669593201351</v>
+        <v>110.3677939621952</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -5928,34 +5928,34 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>131.5262661468203</v>
+        <v>138.636522813432</v>
       </c>
       <c r="C72">
-        <v>212.4805229579129</v>
+        <v>109.3283269549706</v>
       </c>
       <c r="D72">
-        <v>47.25585596579786</v>
+        <v>10.26739841815748</v>
       </c>
       <c r="E72">
-        <v>3842.731009265602</v>
+        <v>652.4696914391225</v>
       </c>
       <c r="F72">
-        <v>42.71542654294794</v>
+        <v>34.72945226664964</v>
       </c>
       <c r="G72">
-        <v>18.02317480851446</v>
+        <v>63.48762325859251</v>
       </c>
       <c r="H72">
-        <v>153.5446182174638</v>
+        <v>226.3123464116485</v>
       </c>
       <c r="I72">
-        <v>43.83655297637937</v>
+        <v>25.23052585301197</v>
       </c>
       <c r="J72">
-        <v>272.470239547458</v>
+        <v>110.3145366510296</v>
       </c>
       <c r="K72">
-        <v>62.44991844389143</v>
+        <v>94.12399626192806</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -5963,34 +5963,34 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>242.6668535100935</v>
+        <v>314.5175056928659</v>
       </c>
       <c r="C73">
-        <v>105.4020434549142</v>
+        <v>96.39962254276033</v>
       </c>
       <c r="D73">
-        <v>21.42603181785764</v>
+        <v>31.09406685697459</v>
       </c>
       <c r="E73">
-        <v>454.4265804345698</v>
+        <v>313.8745060393484</v>
       </c>
       <c r="F73">
-        <v>52.04019571969143</v>
+        <v>37.91820822640931</v>
       </c>
       <c r="G73">
-        <v>58.2744204015509</v>
+        <v>17.10940990988567</v>
       </c>
       <c r="H73">
-        <v>149.5882505299233</v>
+        <v>169.8778328057279</v>
       </c>
       <c r="I73">
-        <v>89.76726184905958</v>
+        <v>39.45512130706814</v>
       </c>
       <c r="J73">
-        <v>248.0320681657718</v>
+        <v>121.1473988300356</v>
       </c>
       <c r="K73">
-        <v>45.66839837824366</v>
+        <v>90.56847375379144</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -5998,34 +5998,34 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>158.5094296050508</v>
+        <v>185.8592602799878</v>
       </c>
       <c r="C74">
-        <v>171.6947030694632</v>
+        <v>120.8420952179117</v>
       </c>
       <c r="D74">
-        <v>14.59807491267459</v>
+        <v>10.51785729108495</v>
       </c>
       <c r="E74">
-        <v>1210.400671241719</v>
+        <v>216.6110805021294</v>
       </c>
       <c r="F74">
-        <v>137.5692482496439</v>
+        <v>109.3790615196667</v>
       </c>
       <c r="G74">
-        <v>20.83092131677088</v>
+        <v>16.08741630866503</v>
       </c>
       <c r="H74">
-        <v>93.91364333770223</v>
+        <v>75.27578154049526</v>
       </c>
       <c r="I74">
-        <v>22.26028302486834</v>
+        <v>18.18335311308915</v>
       </c>
       <c r="J74">
-        <v>225.996934261583</v>
+        <v>240.6554060619276</v>
       </c>
       <c r="K74">
-        <v>78.21048085253116</v>
+        <v>30.94691188514493</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -6033,34 +6033,34 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>78.76018288254525</v>
+        <v>60.63434117153034</v>
       </c>
       <c r="C75">
-        <v>341.2489718888712</v>
+        <v>80.97743058092868</v>
       </c>
       <c r="D75">
-        <v>16.17665721358963</v>
+        <v>12.45930218710508</v>
       </c>
       <c r="E75">
-        <v>569.577768565821</v>
+        <v>530.7930373006957</v>
       </c>
       <c r="F75">
-        <v>95.26332508444185</v>
+        <v>54.38950238675269</v>
       </c>
       <c r="G75">
-        <v>33.50699563726455</v>
+        <v>22.85655260467015</v>
       </c>
       <c r="H75">
-        <v>111.1517867116715</v>
+        <v>108.3741619483005</v>
       </c>
       <c r="I75">
-        <v>33.49704561694097</v>
+        <v>39.71565495494814</v>
       </c>
       <c r="J75">
-        <v>193.3254003659474</v>
+        <v>61.6279105253251</v>
       </c>
       <c r="K75">
-        <v>53.20969038135703</v>
+        <v>59.99913448415806</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -6068,34 +6068,34 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>206.9869138121762</v>
+        <v>135.1956492829609</v>
       </c>
       <c r="C76">
-        <v>77.00267750872692</v>
+        <v>60.05441492673329</v>
       </c>
       <c r="D76">
-        <v>10.97838776478021</v>
+        <v>14.61385222234765</v>
       </c>
       <c r="E76">
-        <v>318.6828961635007</v>
+        <v>482.4619666503396</v>
       </c>
       <c r="F76">
-        <v>84.33837412507191</v>
+        <v>50.52314709376896</v>
       </c>
       <c r="G76">
-        <v>53.01198262522358</v>
+        <v>22.77227767661687</v>
       </c>
       <c r="H76">
-        <v>128.6416135774747</v>
+        <v>87.48492598670292</v>
       </c>
       <c r="I76">
-        <v>44.33081630277256</v>
+        <v>36.07504405260278</v>
       </c>
       <c r="J76">
-        <v>160.0118634018716</v>
+        <v>156.8685862057259</v>
       </c>
       <c r="K76">
-        <v>56.35966916740175</v>
+        <v>57.12256765094561</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -6103,34 +6103,34 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>269.1629388925808</v>
+        <v>167.5549551859889</v>
       </c>
       <c r="C77">
-        <v>198.978786457301</v>
+        <v>63.16574200863652</v>
       </c>
       <c r="D77">
-        <v>17.00282505689628</v>
+        <v>39.17029014422739</v>
       </c>
       <c r="E77">
-        <v>532.3999459496912</v>
+        <v>409.3257778423618</v>
       </c>
       <c r="F77">
-        <v>50.53586471685668</v>
+        <v>43.33548008756493</v>
       </c>
       <c r="G77">
-        <v>46.870788409922</v>
+        <v>35.8880152880259</v>
       </c>
       <c r="H77">
-        <v>148.2618607389915</v>
+        <v>178.8182956310495</v>
       </c>
       <c r="I77">
-        <v>35.09987034602318</v>
+        <v>22.55814345969226</v>
       </c>
       <c r="J77">
-        <v>147.9134364533568</v>
+        <v>155.5356629564696</v>
       </c>
       <c r="K77">
-        <v>57.37432281215757</v>
+        <v>45.70234167075311</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -6138,34 +6138,34 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>158.2252297067296</v>
+        <v>108.9831238618934</v>
       </c>
       <c r="C78">
-        <v>97.61164271104998</v>
+        <v>83.80564763423858</v>
       </c>
       <c r="D78">
-        <v>32.57187220232456</v>
+        <v>22.95849070288504</v>
       </c>
       <c r="E78">
-        <v>1224.233444054596</v>
+        <v>219.4123833322391</v>
       </c>
       <c r="F78">
-        <v>102.2232587699137</v>
+        <v>39.27983539755826</v>
       </c>
       <c r="G78">
-        <v>39.6388766263388</v>
+        <v>12.84470970783127</v>
       </c>
       <c r="H78">
-        <v>94.10404349141142</v>
+        <v>159.6208550749857</v>
       </c>
       <c r="I78">
-        <v>35.78473746774498</v>
+        <v>24.33308738449376</v>
       </c>
       <c r="J78">
-        <v>210.4424878941617</v>
+        <v>126.574305645039</v>
       </c>
       <c r="K78">
-        <v>32.08664178142002</v>
+        <v>48.65364914657534</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -6173,34 +6173,34 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>163.8544580484182</v>
+        <v>172.9739020359113</v>
       </c>
       <c r="C79">
-        <v>111.6157124249367</v>
+        <v>166.1318414207545</v>
       </c>
       <c r="D79">
-        <v>15.41135962547017</v>
+        <v>13.37718970941164</v>
       </c>
       <c r="E79">
-        <v>917.7125088002607</v>
+        <v>236.9221460828571</v>
       </c>
       <c r="F79">
-        <v>130.2067744394289</v>
+        <v>85.45326089555043</v>
       </c>
       <c r="G79">
-        <v>14.44274215412282</v>
+        <v>38.45369408757383</v>
       </c>
       <c r="H79">
-        <v>304.4770564856819</v>
+        <v>145.4888918827167</v>
       </c>
       <c r="I79">
-        <v>71.82810655952994</v>
+        <v>14.43575385697502</v>
       </c>
       <c r="J79">
-        <v>133.5438092590023</v>
+        <v>78.72902711148932</v>
       </c>
       <c r="K79">
-        <v>37.02852080304834</v>
+        <v>71.31746975089047</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -6208,34 +6208,34 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>217.9066039388127</v>
+        <v>157.9951423534117</v>
       </c>
       <c r="C80">
-        <v>251.1526336585705</v>
+        <v>121.7515767640297</v>
       </c>
       <c r="D80">
-        <v>35.36675939022089</v>
+        <v>11.25720232914249</v>
       </c>
       <c r="E80">
-        <v>1261.865698705678</v>
+        <v>314.4241738677783</v>
       </c>
       <c r="F80">
-        <v>61.4344772487033</v>
+        <v>25.43554572337217</v>
       </c>
       <c r="G80">
-        <v>38.42453644034963</v>
+        <v>65.89335295597168</v>
       </c>
       <c r="H80">
-        <v>205.7792443991686</v>
+        <v>127.5899243316447</v>
       </c>
       <c r="I80">
-        <v>33.90364019767937</v>
+        <v>50.09102962425951</v>
       </c>
       <c r="J80">
-        <v>102.5585449916716</v>
+        <v>68.73484005995041</v>
       </c>
       <c r="K80">
-        <v>103.3271648849206</v>
+        <v>53.05666320022804</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -6243,34 +6243,34 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>87.51740418162437</v>
+        <v>92.87512750715346</v>
       </c>
       <c r="C81">
-        <v>96.36923772733532</v>
+        <v>103.656547500602</v>
       </c>
       <c r="D81">
-        <v>18.04441522434787</v>
+        <v>8.189128949266433</v>
       </c>
       <c r="E81">
-        <v>569.0779685340669</v>
+        <v>203.078071751243</v>
       </c>
       <c r="F81">
-        <v>51.7792790019811</v>
+        <v>24.29600842745713</v>
       </c>
       <c r="G81">
-        <v>28.9975540998873</v>
+        <v>14.31679884672213</v>
       </c>
       <c r="H81">
-        <v>83.44380136302493</v>
+        <v>125.6548296315468</v>
       </c>
       <c r="I81">
-        <v>31.14003194139707</v>
+        <v>27.87574282008923</v>
       </c>
       <c r="J81">
-        <v>188.3823804512196</v>
+        <v>112.840295816944</v>
       </c>
       <c r="K81">
-        <v>83.7510750039521</v>
+        <v>49.8629651525028</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -6278,34 +6278,34 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>137.6836638755858</v>
+        <v>103.0266342610809</v>
       </c>
       <c r="C82">
-        <v>179.4145153847195</v>
+        <v>84.38283470135745</v>
       </c>
       <c r="D82">
-        <v>31.30012524689394</v>
+        <v>16.80524382491473</v>
       </c>
       <c r="E82">
-        <v>762.5261172721224</v>
+        <v>548.8445054194268</v>
       </c>
       <c r="F82">
-        <v>44.88459751188027</v>
+        <v>37.47400732948142</v>
       </c>
       <c r="G82">
-        <v>17.77897795291065</v>
+        <v>21.89245983446991</v>
       </c>
       <c r="H82">
-        <v>149.8382661125664</v>
+        <v>101.5596099706349</v>
       </c>
       <c r="I82">
-        <v>37.44484484231634</v>
+        <v>32.67584793567079</v>
       </c>
       <c r="J82">
-        <v>254.5980094746793</v>
+        <v>178.6675490790946</v>
       </c>
       <c r="K82">
-        <v>55.88245764281018</v>
+        <v>32.97126521351736</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -6313,34 +6313,34 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>137.1275382671261</v>
+        <v>88.37292471472381</v>
       </c>
       <c r="C83">
-        <v>263.4238116151568</v>
+        <v>52.40330499171194</v>
       </c>
       <c r="D83">
-        <v>34.98116440483269</v>
+        <v>15.52010680914283</v>
       </c>
       <c r="E83">
-        <v>744.3691939107272</v>
+        <v>667.4911516326151</v>
       </c>
       <c r="F83">
-        <v>30.18930710945754</v>
+        <v>51.93945974933812</v>
       </c>
       <c r="G83">
-        <v>57.7267293931721</v>
+        <v>41.87181259466485</v>
       </c>
       <c r="H83">
-        <v>262.8101170604128</v>
+        <v>160.550787595761</v>
       </c>
       <c r="I83">
-        <v>39.85187217048649</v>
+        <v>24.64579223754443</v>
       </c>
       <c r="J83">
-        <v>155.2348892497999</v>
+        <v>123.2618715099232</v>
       </c>
       <c r="K83">
-        <v>63.1272144030241</v>
+        <v>43.63846506680824</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -6348,34 +6348,34 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>250.9047930698627</v>
+        <v>131.1019339627516</v>
       </c>
       <c r="C84">
-        <v>157.9224938698634</v>
+        <v>243.686292698131</v>
       </c>
       <c r="D84">
-        <v>11.7238204496896</v>
+        <v>15.3443963838376</v>
       </c>
       <c r="E84">
-        <v>634.2840561359161</v>
+        <v>297.5775141761537</v>
       </c>
       <c r="F84">
-        <v>56.38064557592351</v>
+        <v>33.9497037980347</v>
       </c>
       <c r="G84">
-        <v>41.42678344724701</v>
+        <v>18.4090848622432</v>
       </c>
       <c r="H84">
-        <v>176.1685568080474</v>
+        <v>166.0898207052412</v>
       </c>
       <c r="I84">
-        <v>27.71654559590345</v>
+        <v>16.89508611594653</v>
       </c>
       <c r="J84">
-        <v>247.9379477132005</v>
+        <v>99.36942696694648</v>
       </c>
       <c r="K84">
-        <v>103.2106589792435</v>
+        <v>32.33337735678945</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -6383,34 +6383,34 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>129.2643383426656</v>
+        <v>91.94142199614696</v>
       </c>
       <c r="C85">
-        <v>225.3501060575186</v>
+        <v>69.89759052942041</v>
       </c>
       <c r="D85">
-        <v>26.74739287940203</v>
+        <v>16.87375230509112</v>
       </c>
       <c r="E85">
-        <v>1069.614789056933</v>
+        <v>533.8758488680118</v>
       </c>
       <c r="F85">
-        <v>63.03461388501136</v>
+        <v>41.99201209300937</v>
       </c>
       <c r="G85">
-        <v>28.63041006524037</v>
+        <v>44.98209380412432</v>
       </c>
       <c r="H85">
-        <v>76.1764536973506</v>
+        <v>150.5554565601173</v>
       </c>
       <c r="I85">
-        <v>84.09109856026335</v>
+        <v>33.15630776658158</v>
       </c>
       <c r="J85">
-        <v>195.3254939241794</v>
+        <v>114.6580667463912</v>
       </c>
       <c r="K85">
-        <v>33.10321057496256</v>
+        <v>72.45314522311027</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -6418,34 +6418,34 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>170.9688997661069</v>
+        <v>152.0907962390614</v>
       </c>
       <c r="C86">
-        <v>166.212556237565</v>
+        <v>83.81223892608865</v>
       </c>
       <c r="D86">
-        <v>18.49587726673145</v>
+        <v>11.17971005857085</v>
       </c>
       <c r="E86">
-        <v>743.2445561857093</v>
+        <v>429.3804381869537</v>
       </c>
       <c r="F86">
-        <v>49.92949445040397</v>
+        <v>53.69604654088028</v>
       </c>
       <c r="G86">
-        <v>57.41040455127759</v>
+        <v>28.87760492905563</v>
       </c>
       <c r="H86">
-        <v>89.73963395298546</v>
+        <v>158.3716700636681</v>
       </c>
       <c r="I86">
-        <v>60.20185760841925</v>
+        <v>23.87614420837232</v>
       </c>
       <c r="J86">
-        <v>257.8884075020682</v>
+        <v>120.001986083918</v>
       </c>
       <c r="K86">
-        <v>64.22230403477568</v>
+        <v>57.55389377651581</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -6453,34 +6453,34 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>119.4357123091275</v>
+        <v>216.7582983420251</v>
       </c>
       <c r="C87">
-        <v>69.49199317638633</v>
+        <v>62.31180887726416</v>
       </c>
       <c r="D87">
-        <v>18.67168467890839</v>
+        <v>12.84443328061478</v>
       </c>
       <c r="E87">
-        <v>487.7123702967816</v>
+        <v>535.2033199907069</v>
       </c>
       <c r="F87">
-        <v>209.9116474082652</v>
+        <v>182.3344491223165</v>
       </c>
       <c r="G87">
-        <v>41.26236790645487</v>
+        <v>20.72197833240605</v>
       </c>
       <c r="H87">
-        <v>149.7150939275092</v>
+        <v>113.6735690850881</v>
       </c>
       <c r="I87">
-        <v>49.59802461598476</v>
+        <v>39.54677713576827</v>
       </c>
       <c r="J87">
-        <v>221.3114233997761</v>
+        <v>166.2572583738969</v>
       </c>
       <c r="K87">
-        <v>54.73505130478771</v>
+        <v>36.55728421724362</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -6488,34 +6488,34 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>168.6103881476831</v>
+        <v>92.83575241693543</v>
       </c>
       <c r="C88">
-        <v>178.9223242423788</v>
+        <v>119.0423368424652</v>
       </c>
       <c r="D88">
-        <v>23.03840283201236</v>
+        <v>18.69081944025306</v>
       </c>
       <c r="E88">
-        <v>496.2895169672469</v>
+        <v>467.6318579874501</v>
       </c>
       <c r="F88">
-        <v>82.95886090626381</v>
+        <v>48.08114244929222</v>
       </c>
       <c r="G88">
-        <v>32.47559958921198</v>
+        <v>44.45310571326365</v>
       </c>
       <c r="H88">
-        <v>182.13627861699</v>
+        <v>132.6044182870021</v>
       </c>
       <c r="I88">
-        <v>36.80645953431721</v>
+        <v>23.2920812382255</v>
       </c>
       <c r="J88">
-        <v>177.6480721300536</v>
+        <v>503.4518469563021</v>
       </c>
       <c r="K88">
-        <v>74.61003801075003</v>
+        <v>56.17865845370063</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -6523,34 +6523,34 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>238.5759712800827</v>
+        <v>131.4201883864402</v>
       </c>
       <c r="C89">
-        <v>184.9752073930741</v>
+        <v>112.0254233020829</v>
       </c>
       <c r="D89">
-        <v>14.0410132265326</v>
+        <v>7.485775433764863</v>
       </c>
       <c r="E89">
-        <v>760.9648312690762</v>
+        <v>304.8074486711521</v>
       </c>
       <c r="F89">
-        <v>92.0840214776933</v>
+        <v>119.541768647866</v>
       </c>
       <c r="G89">
-        <v>25.0548272644472</v>
+        <v>21.64453553928863</v>
       </c>
       <c r="H89">
-        <v>166.2387753048785</v>
+        <v>176.8324850846031</v>
       </c>
       <c r="I89">
-        <v>36.90779954659681</v>
+        <v>28.81706836288112</v>
       </c>
       <c r="J89">
-        <v>168.7092361965123</v>
+        <v>208.3897861132884</v>
       </c>
       <c r="K89">
-        <v>64.31669295801584</v>
+        <v>76.01969415091389</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -6558,34 +6558,34 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>210.3093547671018</v>
+        <v>60.91183508559973</v>
       </c>
       <c r="C90">
-        <v>168.7370499386161</v>
+        <v>77.06394778907574</v>
       </c>
       <c r="D90">
-        <v>7.795776100244325</v>
+        <v>9.469091356487574</v>
       </c>
       <c r="E90">
-        <v>916.3570530685342</v>
+        <v>482.3177710139307</v>
       </c>
       <c r="F90">
-        <v>74.13393279405599</v>
+        <v>48.14152596720583</v>
       </c>
       <c r="G90">
-        <v>45.63667113104898</v>
+        <v>11.38623815432123</v>
       </c>
       <c r="H90">
-        <v>204.2700803807288</v>
+        <v>89.45648193947859</v>
       </c>
       <c r="I90">
-        <v>54.90532332006634</v>
+        <v>23.83997100725751</v>
       </c>
       <c r="J90">
-        <v>303.6737334736282</v>
+        <v>123.3454697448738</v>
       </c>
       <c r="K90">
-        <v>34.01364621759807</v>
+        <v>56.9433611060084</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -6593,34 +6593,34 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>403.2670989577796</v>
+        <v>89.42495419841268</v>
       </c>
       <c r="C91">
-        <v>147.9126560189487</v>
+        <v>129.507038923141</v>
       </c>
       <c r="D91">
-        <v>21.0930363226313</v>
+        <v>13.7061839707788</v>
       </c>
       <c r="E91">
-        <v>263.2287277860492</v>
+        <v>593.8440822133263</v>
       </c>
       <c r="F91">
-        <v>99.16605153219183</v>
+        <v>50.97830310999375</v>
       </c>
       <c r="G91">
-        <v>27.24372317399208</v>
+        <v>26.70685159033639</v>
       </c>
       <c r="H91">
-        <v>240.5669636107091</v>
+        <v>245.7753824346216</v>
       </c>
       <c r="I91">
-        <v>23.55218877069439</v>
+        <v>32.80248637562873</v>
       </c>
       <c r="J91">
-        <v>196.9499628731378</v>
+        <v>168.9681271855293</v>
       </c>
       <c r="K91">
-        <v>105.6842274828356</v>
+        <v>41.01046595665508</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -6628,34 +6628,34 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>142.123831593974</v>
+        <v>194.2705624629678</v>
       </c>
       <c r="C92">
-        <v>220.0059376461952</v>
+        <v>77.99577724964959</v>
       </c>
       <c r="D92">
-        <v>21.46522132011443</v>
+        <v>13.31150674501469</v>
       </c>
       <c r="E92">
-        <v>657.2571357798292</v>
+        <v>509.3024602709316</v>
       </c>
       <c r="F92">
-        <v>112.3654052516843</v>
+        <v>39.90937989566633</v>
       </c>
       <c r="G92">
-        <v>34.19559811519394</v>
+        <v>34.20536512438863</v>
       </c>
       <c r="H92">
-        <v>125.8544574837088</v>
+        <v>105.9891380103286</v>
       </c>
       <c r="I92">
-        <v>25.87127988690438</v>
+        <v>26.76991875746106</v>
       </c>
       <c r="J92">
-        <v>185.704939396532</v>
+        <v>112.4732205220563</v>
       </c>
       <c r="K92">
-        <v>47.20247797958998</v>
+        <v>57.56590068535296</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -6663,34 +6663,34 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>224.9618084294547</v>
+        <v>105.5543250283777</v>
       </c>
       <c r="C93">
-        <v>150.388486837209</v>
+        <v>216.9814657076983</v>
       </c>
       <c r="D93">
-        <v>11.55876066808422</v>
+        <v>14.25201584965655</v>
       </c>
       <c r="E93">
-        <v>621.0244229476942</v>
+        <v>442.8891465016425</v>
       </c>
       <c r="F93">
-        <v>75.68330390491816</v>
+        <v>24.61546225779164</v>
       </c>
       <c r="G93">
-        <v>73.36031148637673</v>
+        <v>33.03177184862987</v>
       </c>
       <c r="H93">
-        <v>132.7099567752517</v>
+        <v>123.2468751883751</v>
       </c>
       <c r="I93">
-        <v>37.17609519261659</v>
+        <v>28.09929307722557</v>
       </c>
       <c r="J93">
-        <v>541.3463424162695</v>
+        <v>85.05726815003466</v>
       </c>
       <c r="K93">
-        <v>50.32432497315911</v>
+        <v>69.43484501250475</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -6698,34 +6698,34 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>209.4789967308055</v>
+        <v>344.0291851288997</v>
       </c>
       <c r="C94">
-        <v>333.5150889713168</v>
+        <v>137.0329216553645</v>
       </c>
       <c r="D94">
-        <v>55.49349676991219</v>
+        <v>11.0484465613898</v>
       </c>
       <c r="E94">
-        <v>1287.761279732561</v>
+        <v>369.6199746396316</v>
       </c>
       <c r="F94">
-        <v>139.0231721907784</v>
+        <v>40.97954253056538</v>
       </c>
       <c r="G94">
-        <v>36.43821304547012</v>
+        <v>11.32838896669947</v>
       </c>
       <c r="H94">
-        <v>108.6523896923844</v>
+        <v>88.92847116555721</v>
       </c>
       <c r="I94">
-        <v>43.05544049287504</v>
+        <v>32.85672551081699</v>
       </c>
       <c r="J94">
-        <v>379.0478989846184</v>
+        <v>150.1148268515538</v>
       </c>
       <c r="K94">
-        <v>276.8668521579435</v>
+        <v>28.44119812606382</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -6733,34 +6733,34 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>120.0373203385643</v>
+        <v>76.55248552774246</v>
       </c>
       <c r="C95">
-        <v>196.1389228936251</v>
+        <v>104.037156112321</v>
       </c>
       <c r="D95">
-        <v>28.92615291663827</v>
+        <v>8.833436877266157</v>
       </c>
       <c r="E95">
-        <v>252.7156269623597</v>
+        <v>358.5764111959261</v>
       </c>
       <c r="F95">
-        <v>47.76967841254083</v>
+        <v>49.60554317382831</v>
       </c>
       <c r="G95">
-        <v>61.47655443278811</v>
+        <v>24.27774502435061</v>
       </c>
       <c r="H95">
-        <v>284.0186406602232</v>
+        <v>119.8155523454374</v>
       </c>
       <c r="I95">
-        <v>52.08345321484931</v>
+        <v>20.28488652890924</v>
       </c>
       <c r="J95">
-        <v>331.4407448273246</v>
+        <v>113.7249484321111</v>
       </c>
       <c r="K95">
-        <v>59.53793269582857</v>
+        <v>50.82746534045589</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -6768,34 +6768,34 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>153.2344030138556</v>
+        <v>191.0967339015029</v>
       </c>
       <c r="C96">
-        <v>289.0103812100201</v>
+        <v>87.71388398634576</v>
       </c>
       <c r="D96">
-        <v>20.3104053282181</v>
+        <v>10.50181586964584</v>
       </c>
       <c r="E96">
-        <v>344.5554853393461</v>
+        <v>219.5534735072766</v>
       </c>
       <c r="F96">
-        <v>84.07421181074329</v>
+        <v>116.840464292749</v>
       </c>
       <c r="G96">
-        <v>41.87902279521333</v>
+        <v>17.90956248210064</v>
       </c>
       <c r="H96">
-        <v>240.4773378896312</v>
+        <v>164.8390815269262</v>
       </c>
       <c r="I96">
-        <v>39.59102749023024</v>
+        <v>15.11428326724986</v>
       </c>
       <c r="J96">
-        <v>124.4975320763509</v>
+        <v>147.9672734679191</v>
       </c>
       <c r="K96">
-        <v>28.57577179097173</v>
+        <v>31.4165851905186</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -6803,34 +6803,34 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>175.40694926109</v>
+        <v>120.8180352888363</v>
       </c>
       <c r="C97">
-        <v>1214.670516548613</v>
+        <v>121.0329339979199</v>
       </c>
       <c r="D97">
-        <v>27.3724253114313</v>
+        <v>7.443525624035021</v>
       </c>
       <c r="E97">
-        <v>712.0839014104666</v>
+        <v>282.5699679192616</v>
       </c>
       <c r="F97">
-        <v>62.44678794676143</v>
+        <v>51.14214153075172</v>
       </c>
       <c r="G97">
-        <v>54.32707516780462</v>
+        <v>23.25262737865773</v>
       </c>
       <c r="H97">
-        <v>84.39866719158159</v>
+        <v>71.42890228480529</v>
       </c>
       <c r="I97">
-        <v>31.66170411148403</v>
+        <v>14.3585179157464</v>
       </c>
       <c r="J97">
-        <v>188.1975320221788</v>
+        <v>161.9327080355909</v>
       </c>
       <c r="K97">
-        <v>141.6011055922114</v>
+        <v>29.57530711003778</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -6838,34 +6838,34 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>210.9994194258259</v>
+        <v>158.0425328062739</v>
       </c>
       <c r="C98">
-        <v>125.3256867654333</v>
+        <v>87.54697097821</v>
       </c>
       <c r="D98">
-        <v>22.62459087058044</v>
+        <v>11.57992785319456</v>
       </c>
       <c r="E98">
-        <v>642.9586032563849</v>
+        <v>565.2346333420329</v>
       </c>
       <c r="F98">
-        <v>168.4899165480813</v>
+        <v>44.04615396290552</v>
       </c>
       <c r="G98">
-        <v>24.6279606151415</v>
+        <v>17.35575196851644</v>
       </c>
       <c r="H98">
-        <v>71.39425501959897</v>
+        <v>91.82098677104209</v>
       </c>
       <c r="I98">
-        <v>60.48921067410227</v>
+        <v>31.80620347130467</v>
       </c>
       <c r="J98">
-        <v>247.765523863505</v>
+        <v>177.436671893162</v>
       </c>
       <c r="K98">
-        <v>36.37480943734923</v>
+        <v>42.70898490543982</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -6873,34 +6873,34 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>190.9449549436927</v>
+        <v>221.7095131108724</v>
       </c>
       <c r="C99">
-        <v>220.2214203266621</v>
+        <v>206.319990565769</v>
       </c>
       <c r="D99">
-        <v>16.16175004941132</v>
+        <v>10.47740079251121</v>
       </c>
       <c r="E99">
-        <v>684.6220707014984</v>
+        <v>607.003298988694</v>
       </c>
       <c r="F99">
-        <v>31.22482438354963</v>
+        <v>45.73677804307007</v>
       </c>
       <c r="G99">
-        <v>19.32886849165546</v>
+        <v>34.07409557893547</v>
       </c>
       <c r="H99">
-        <v>158.8710743955963</v>
+        <v>141.1548514146074</v>
       </c>
       <c r="I99">
-        <v>36.44141194488404</v>
+        <v>58.76700000856584</v>
       </c>
       <c r="J99">
-        <v>324.0610670221092</v>
+        <v>84.06266921919456</v>
       </c>
       <c r="K99">
-        <v>67.5705710654142</v>
+        <v>53.07872752198116</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -6908,34 +6908,34 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>97.02509686120968</v>
+        <v>154.8414454126978</v>
       </c>
       <c r="C100">
-        <v>225.6638280980655</v>
+        <v>110.3005753528913</v>
       </c>
       <c r="D100">
-        <v>18.4641641385346</v>
+        <v>12.44725643804567</v>
       </c>
       <c r="E100">
-        <v>562.1663724717514</v>
+        <v>235.4044290375853</v>
       </c>
       <c r="F100">
-        <v>78.83003633620608</v>
+        <v>40.17886597494527</v>
       </c>
       <c r="G100">
-        <v>29.6590477130632</v>
+        <v>8.48244445682519</v>
       </c>
       <c r="H100">
-        <v>439.1030166756734</v>
+        <v>185.569481733447</v>
       </c>
       <c r="I100">
-        <v>22.00960354076546</v>
+        <v>28.46100333182174</v>
       </c>
       <c r="J100">
-        <v>296.7633990622089</v>
+        <v>105.0879870640638</v>
       </c>
       <c r="K100">
-        <v>91.85331470257607</v>
+        <v>74.29179358546833</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -6943,34 +6943,34 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>132.043671274624</v>
+        <v>149.727624096654</v>
       </c>
       <c r="C101">
-        <v>282.2266250486247</v>
+        <v>296.7173604909188</v>
       </c>
       <c r="D101">
-        <v>13.19174312750203</v>
+        <v>18.46060401764362</v>
       </c>
       <c r="E101">
-        <v>316.2762233384089</v>
+        <v>403.2733085969987</v>
       </c>
       <c r="F101">
-        <v>44.81891469730765</v>
+        <v>76.68169244671758</v>
       </c>
       <c r="G101">
-        <v>20.36331345626753</v>
+        <v>33.91097281079272</v>
       </c>
       <c r="H101">
-        <v>189.7320042165192</v>
+        <v>84.15164593952548</v>
       </c>
       <c r="I101">
-        <v>22.1105990209821</v>
+        <v>25.0481536340359</v>
       </c>
       <c r="J101">
-        <v>258.6595693392824</v>
+        <v>96.02726206203953</v>
       </c>
       <c r="K101">
-        <v>51.03426992112801</v>
+        <v>32.30613642055088</v>
       </c>
     </row>
   </sheetData>
@@ -7023,34 +7023,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>168.0450752642483</v>
+        <v>103.7532922354987</v>
       </c>
       <c r="C2">
-        <v>161.5448993916542</v>
+        <v>99.75116823632391</v>
       </c>
       <c r="D2">
-        <v>20.38743136732384</v>
+        <v>13.09681299040628</v>
       </c>
       <c r="E2">
-        <v>501.7542444191097</v>
+        <v>321.6313061417997</v>
       </c>
       <c r="F2">
-        <v>74.74940915108591</v>
+        <v>41.95234487426595</v>
       </c>
       <c r="G2">
-        <v>33.63914487904172</v>
+        <v>19.70105902519189</v>
       </c>
       <c r="H2">
-        <v>168.2717416403987</v>
+        <v>100.1511128347617</v>
       </c>
       <c r="I2">
-        <v>38.8595130404674</v>
+        <v>23.23849697476475</v>
       </c>
       <c r="J2">
-        <v>205.0180795170787</v>
+        <v>125.6639276876996</v>
       </c>
       <c r="K2">
-        <v>68.69673198307375</v>
+        <v>42.30115878694091</v>
       </c>
     </row>
   </sheetData>
